--- a/IFTTT_Maker_Webhooks_Events (76).xlsx
+++ b/IFTTT_Maker_Webhooks_Events (76).xlsx
@@ -11,141 +11,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6000" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6000" uniqueCount="46">
   <si>
-    <t>May 11, 2021 at 11:44AM</t>
+    <t>June 10, 2021 at 03:04PM</t>
   </si>
   <si>
-    <t>esp03</t>
+    <t>esp02</t>
   </si>
   <si>
-    <t>PH: 4</t>
+    <t>Temperatura Sumergible: 24</t>
   </si>
   <si>
-    <t>May 11, 2021 at 11:45AM</t>
+    <t>June 10, 2021 at 03:05PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 11:46AM</t>
+    <t>June 10, 2021 at 03:06PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 11:47AM</t>
+    <t>June 10, 2021 at 03:07PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 11:48AM</t>
+    <t>June 10, 2021 at 03:08PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 11:49AM</t>
+    <t>June 10, 2021 at 03:09PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 11:50AM</t>
+    <t>June 10, 2021 at 03:10PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 11:51AM</t>
+    <t>June 10, 2021 at 03:11PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 11:52AM</t>
+    <t>June 10, 2021 at 03:12PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 11:53AM</t>
+    <t>June 10, 2021 at 03:13PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 11:54AM</t>
+    <t>June 10, 2021 at 03:14PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 11:55AM</t>
+    <t>June 10, 2021 at 03:15PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 11:56AM</t>
+    <t>June 10, 2021 at 03:16PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 11:57AM</t>
+    <t>June 10, 2021 at 03:17PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 11:58AM</t>
+    <t>June 10, 2021 at 03:18PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 11:59AM</t>
+    <t>June 10, 2021 at 03:19PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:00PM</t>
+    <t>June 10, 2021 at 03:20PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:01PM</t>
+    <t>June 10, 2021 at 03:21PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:02PM</t>
+    <t>June 10, 2021 at 03:22PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:03PM</t>
+    <t>June 10, 2021 at 03:23PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:04PM</t>
+    <t>June 10, 2021 at 03:38PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:05PM</t>
+    <t>June 10, 2021 at 03:39PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:06PM</t>
+    <t>June 10, 2021 at 03:40PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:07PM</t>
+    <t>June 10, 2021 at 03:41PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:08PM</t>
+    <t>June 10, 2021 at 03:42PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:09PM</t>
+    <t>June 10, 2021 at 03:57PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:10PM</t>
+    <t>June 10, 2021 at 03:58PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:11PM</t>
+    <t>June 10, 2021 at 03:59PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:12PM</t>
+    <t>June 10, 2021 at 04:00PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:13PM</t>
+    <t>Temperatura Sumergible: 25</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:14PM</t>
+    <t>June 10, 2021 at 04:01PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:15PM</t>
+    <t>June 10, 2021 at 04:02PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:16PM</t>
+    <t>June 10, 2021 at 04:03PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:17PM</t>
+    <t>June 10, 2021 at 04:04PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:18PM</t>
+    <t>June 10, 2021 at 04:05PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:19PM</t>
+    <t>June 10, 2021 at 04:06PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:20PM</t>
+    <t>June 10, 2021 at 04:07PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:21PM</t>
+    <t>June 10, 2021 at 04:08PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:22PM</t>
+    <t>June 10, 2021 at 04:09PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:23PM</t>
+    <t>June 10, 2021 at 04:24PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:24PM</t>
+    <t>June 10, 2021 at 04:25PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:25PM</t>
+    <t>June 10, 2021 at 04:26PM</t>
   </si>
   <si>
-    <t>May 11, 2021 at 12:26PM</t>
+    <t>June 10, 2021 at 04:27PM</t>
+  </si>
+  <si>
+    <t>June 10, 2021 at 04:28PM</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -582,7 +585,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
@@ -593,7 +596,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
@@ -604,7 +607,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -615,7 +618,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
@@ -626,7 +629,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
@@ -637,7 +640,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
@@ -648,7 +651,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -659,7 +662,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1</v>
@@ -670,7 +673,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
@@ -681,7 +684,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
@@ -692,7 +695,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1</v>
@@ -703,7 +706,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1</v>
@@ -714,7 +717,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>1</v>
@@ -725,7 +728,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
@@ -736,7 +739,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
@@ -747,7 +750,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>1</v>
@@ -758,7 +761,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>1</v>
@@ -769,7 +772,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1</v>
@@ -780,7 +783,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1</v>
@@ -791,7 +794,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>1</v>
@@ -802,7 +805,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1</v>
@@ -813,7 +816,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>1</v>
@@ -824,7 +827,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>1</v>
@@ -835,7 +838,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1</v>
@@ -846,7 +849,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>1</v>
@@ -857,7 +860,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>1</v>
@@ -868,7 +871,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>1</v>
@@ -879,7 +882,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>1</v>
@@ -1121,7 +1124,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>1</v>
@@ -1132,7 +1135,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1</v>
@@ -1143,7 +1146,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>1</v>
@@ -1154,7 +1157,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>1</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1</v>
@@ -1176,7 +1179,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>1</v>
@@ -1187,7 +1190,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1</v>
@@ -1198,7 +1201,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1</v>
@@ -1209,7 +1212,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1</v>
@@ -1220,7 +1223,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>1</v>
@@ -1231,7 +1234,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>1</v>
@@ -1242,7 +1245,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1</v>
@@ -1253,7 +1256,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>1</v>
@@ -1264,7 +1267,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>1</v>
@@ -1275,7 +1278,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>1</v>
@@ -1286,7 +1289,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>1</v>
@@ -1297,7 +1300,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>1</v>
@@ -1308,7 +1311,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>1</v>
@@ -1319,7 +1322,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>1</v>
@@ -1330,7 +1333,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>1</v>
@@ -1341,7 +1344,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>1</v>
@@ -1352,7 +1355,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>1</v>
@@ -1363,7 +1366,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>1</v>
@@ -1374,7 +1377,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>1</v>
@@ -1385,7 +1388,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>1</v>
@@ -1396,7 +1399,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>1</v>
@@ -1407,7 +1410,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>1</v>
@@ -1418,7 +1421,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>1</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>1</v>
@@ -1671,7 +1674,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>1</v>
@@ -1682,7 +1685,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>1</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>1</v>
@@ -1704,7 +1707,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>1</v>
@@ -1715,7 +1718,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>1</v>
@@ -1726,7 +1729,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>1</v>
@@ -1737,7 +1740,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>1</v>
@@ -1748,7 +1751,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>1</v>
@@ -1759,7 +1762,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>1</v>
@@ -1770,7 +1773,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>1</v>
@@ -1781,7 +1784,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>1</v>
@@ -1792,7 +1795,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>1</v>
@@ -1803,7 +1806,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>1</v>
@@ -1814,7 +1817,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>1</v>
@@ -1825,7 +1828,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>1</v>
@@ -1836,7 +1839,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>1</v>
@@ -1847,7 +1850,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>1</v>
@@ -1858,7 +1861,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>1</v>
@@ -1869,7 +1872,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>1</v>
@@ -1880,7 +1883,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>1</v>
@@ -1891,7 +1894,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>1</v>
@@ -1902,7 +1905,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>1</v>
@@ -1913,7 +1916,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>1</v>
@@ -1924,7 +1927,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>1</v>
@@ -1935,7 +1938,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>1</v>
@@ -1946,7 +1949,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>1</v>
@@ -1957,7 +1960,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>1</v>
@@ -1968,7 +1971,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>1</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>1</v>
@@ -2221,7 +2224,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>1</v>
@@ -2232,7 +2235,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>1</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>1</v>
@@ -2254,7 +2257,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>1</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>1</v>
@@ -2276,7 +2279,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>1</v>
@@ -2287,7 +2290,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>1</v>
@@ -2298,7 +2301,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>1</v>
@@ -2309,7 +2312,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>1</v>
@@ -2320,7 +2323,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>1</v>
@@ -2331,7 +2334,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>1</v>
@@ -2342,7 +2345,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>1</v>
@@ -2353,7 +2356,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>1</v>
@@ -2364,7 +2367,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>1</v>
@@ -2375,7 +2378,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>1</v>
@@ -2386,7 +2389,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>1</v>
@@ -2397,7 +2400,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>1</v>
@@ -2408,7 +2411,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>1</v>
@@ -2419,7 +2422,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>1</v>
@@ -2430,7 +2433,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>1</v>
@@ -2441,7 +2444,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>1</v>
@@ -2452,7 +2455,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>1</v>
@@ -2463,7 +2466,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>1</v>
@@ -2474,7 +2477,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>1</v>
@@ -2485,7 +2488,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>1</v>
@@ -2496,7 +2499,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>1</v>
@@ -2507,7 +2510,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>1</v>
@@ -2518,7 +2521,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>1</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>1</v>
@@ -2771,7 +2774,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>1</v>
@@ -2782,7 +2785,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>1</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>1</v>
@@ -2804,7 +2807,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>1</v>
@@ -2815,7 +2818,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>1</v>
@@ -2826,7 +2829,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>1</v>
@@ -2837,7 +2840,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>1</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>1</v>
@@ -2859,7 +2862,7 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>1</v>
@@ -2870,7 +2873,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>1</v>
@@ -2881,7 +2884,7 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>1</v>
@@ -2892,7 +2895,7 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>1</v>
@@ -2903,7 +2906,7 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>1</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>1</v>
@@ -2925,7 +2928,7 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>1</v>
@@ -2936,7 +2939,7 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>1</v>
@@ -2947,7 +2950,7 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>1</v>
@@ -2958,7 +2961,7 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>1</v>
@@ -2969,7 +2972,7 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>1</v>
@@ -2980,7 +2983,7 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>1</v>
@@ -2991,7 +2994,7 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>1</v>
@@ -3002,7 +3005,7 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>1</v>
@@ -3013,7 +3016,7 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>1</v>
@@ -3024,7 +3027,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>1</v>
@@ -3035,7 +3038,7 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>1</v>
@@ -3046,7 +3049,7 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>1</v>
@@ -3057,7 +3060,7 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>1</v>
@@ -3321,7 +3324,7 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>1</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>1</v>
@@ -3750,7 +3753,7 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>1</v>
@@ -3761,7 +3764,7 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>1</v>
@@ -3772,7 +3775,7 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>1</v>
@@ -3783,7 +3786,7 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>1</v>
@@ -3794,7 +3797,7 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>1</v>
@@ -3805,7 +3808,7 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>1</v>
@@ -3816,7 +3819,7 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>1</v>
@@ -3827,7 +3830,7 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>1</v>
@@ -3838,7 +3841,7 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>1</v>
@@ -3849,7 +3852,7 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>1</v>
@@ -3860,7 +3863,7 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>1</v>
@@ -4289,7 +4292,7 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>1</v>
@@ -4300,7 +4303,7 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>1</v>
@@ -4311,7 +4314,7 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>1</v>
@@ -4322,7 +4325,7 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>1</v>
@@ -4333,7 +4336,7 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>1</v>
@@ -4344,7 +4347,7 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>1</v>
@@ -4355,7 +4358,7 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>1</v>
@@ -4366,7 +4369,7 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>1</v>
@@ -4377,7 +4380,7 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>1</v>
@@ -4388,7 +4391,7 @@
     </row>
     <row r="363">
       <c r="A363" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>1</v>
@@ -4399,7 +4402,7 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>1</v>
@@ -4410,7 +4413,7 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>1</v>
@@ -4740,7 +4743,7 @@
     </row>
     <row r="395">
       <c r="A395" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>1</v>
@@ -4751,7 +4754,7 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>1</v>
@@ -4762,7 +4765,7 @@
     </row>
     <row r="397">
       <c r="A397" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>1</v>
@@ -4773,7 +4776,7 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>1</v>
@@ -4784,7 +4787,7 @@
     </row>
     <row r="399">
       <c r="A399" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>1</v>
@@ -4795,7 +4798,7 @@
     </row>
     <row r="400">
       <c r="A400" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>1</v>
@@ -4806,7 +4809,7 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>1</v>
@@ -4817,7 +4820,7 @@
     </row>
     <row r="402">
       <c r="A402" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>1</v>
@@ -4828,7 +4831,7 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>1</v>
@@ -4839,7 +4842,7 @@
     </row>
     <row r="404">
       <c r="A404" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>1</v>
@@ -4850,7 +4853,7 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>1</v>
@@ -4861,7 +4864,7 @@
     </row>
     <row r="406">
       <c r="A406" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>1</v>
@@ -4872,7 +4875,7 @@
     </row>
     <row r="407">
       <c r="A407" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>1</v>
@@ -4883,7 +4886,7 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>1</v>
@@ -4894,7 +4897,7 @@
     </row>
     <row r="409">
       <c r="A409" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>1</v>
@@ -4905,7 +4908,7 @@
     </row>
     <row r="410">
       <c r="A410" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>1</v>
@@ -4916,7 +4919,7 @@
     </row>
     <row r="411">
       <c r="A411" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>1</v>
@@ -4927,7 +4930,7 @@
     </row>
     <row r="412">
       <c r="A412" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>1</v>
@@ -4938,7 +4941,7 @@
     </row>
     <row r="413">
       <c r="A413" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>1</v>
@@ -4949,7 +4952,7 @@
     </row>
     <row r="414">
       <c r="A414" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>1</v>
@@ -4960,7 +4963,7 @@
     </row>
     <row r="415">
       <c r="A415" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>1</v>
@@ -5290,7 +5293,7 @@
     </row>
     <row r="445">
       <c r="A445" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>1</v>
@@ -5301,7 +5304,7 @@
     </row>
     <row r="446">
       <c r="A446" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>1</v>
@@ -5312,7 +5315,7 @@
     </row>
     <row r="447">
       <c r="A447" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>1</v>
@@ -5323,7 +5326,7 @@
     </row>
     <row r="448">
       <c r="A448" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>1</v>
@@ -5334,7 +5337,7 @@
     </row>
     <row r="449">
       <c r="A449" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>1</v>
@@ -5345,7 +5348,7 @@
     </row>
     <row r="450">
       <c r="A450" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>1</v>
@@ -5356,7 +5359,7 @@
     </row>
     <row r="451">
       <c r="A451" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>1</v>
@@ -5367,7 +5370,7 @@
     </row>
     <row r="452">
       <c r="A452" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>1</v>
@@ -5378,7 +5381,7 @@
     </row>
     <row r="453">
       <c r="A453" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>1</v>
@@ -5389,7 +5392,7 @@
     </row>
     <row r="454">
       <c r="A454" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>1</v>
@@ -5400,7 +5403,7 @@
     </row>
     <row r="455">
       <c r="A455" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>1</v>
@@ -5411,7 +5414,7 @@
     </row>
     <row r="456">
       <c r="A456" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>1</v>
@@ -5422,7 +5425,7 @@
     </row>
     <row r="457">
       <c r="A457" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>1</v>
@@ -5433,7 +5436,7 @@
     </row>
     <row r="458">
       <c r="A458" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>1</v>
@@ -5444,7 +5447,7 @@
     </row>
     <row r="459">
       <c r="A459" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>1</v>
@@ -5455,7 +5458,7 @@
     </row>
     <row r="460">
       <c r="A460" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>1</v>
@@ -5466,7 +5469,7 @@
     </row>
     <row r="461">
       <c r="A461" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>1</v>
@@ -5477,7 +5480,7 @@
     </row>
     <row r="462">
       <c r="A462" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>1</v>
@@ -5488,7 +5491,7 @@
     </row>
     <row r="463">
       <c r="A463" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>1</v>
@@ -5499,7 +5502,7 @@
     </row>
     <row r="464">
       <c r="A464" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>1</v>
@@ -5510,7 +5513,7 @@
     </row>
     <row r="465">
       <c r="A465" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>1</v>
@@ -5840,7 +5843,7 @@
     </row>
     <row r="495">
       <c r="A495" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>1</v>
@@ -5851,7 +5854,7 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>1</v>
@@ -5862,7 +5865,7 @@
     </row>
     <row r="497">
       <c r="A497" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>1</v>
@@ -5873,7 +5876,7 @@
     </row>
     <row r="498">
       <c r="A498" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>1</v>
@@ -5884,7 +5887,7 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>1</v>
@@ -5895,7 +5898,7 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>1</v>
@@ -5906,7 +5909,7 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>1</v>
@@ -5917,7 +5920,7 @@
     </row>
     <row r="502">
       <c r="A502" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>1</v>
@@ -5928,7 +5931,7 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>1</v>
@@ -5939,7 +5942,7 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>1</v>
@@ -5950,7 +5953,7 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>1</v>
@@ -5961,7 +5964,7 @@
     </row>
     <row r="506">
       <c r="A506" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>1</v>
@@ -5972,7 +5975,7 @@
     </row>
     <row r="507">
       <c r="A507" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>1</v>
@@ -5983,7 +5986,7 @@
     </row>
     <row r="508">
       <c r="A508" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>1</v>
@@ -5994,7 +5997,7 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>1</v>
@@ -6005,7 +6008,7 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>1</v>
@@ -6016,7 +6019,7 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>1</v>
@@ -6027,7 +6030,7 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>1</v>
@@ -6038,7 +6041,7 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>1</v>
@@ -6049,7 +6052,7 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>1</v>
@@ -6060,7 +6063,7 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>1</v>
@@ -6390,7 +6393,7 @@
     </row>
     <row r="545">
       <c r="A545" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>1</v>
@@ -6401,7 +6404,7 @@
     </row>
     <row r="546">
       <c r="A546" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>1</v>
@@ -6412,7 +6415,7 @@
     </row>
     <row r="547">
       <c r="A547" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>1</v>
@@ -6423,7 +6426,7 @@
     </row>
     <row r="548">
       <c r="A548" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>1</v>
@@ -6434,7 +6437,7 @@
     </row>
     <row r="549">
       <c r="A549" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>1</v>
@@ -6445,7 +6448,7 @@
     </row>
     <row r="550">
       <c r="A550" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>1</v>
@@ -6456,7 +6459,7 @@
     </row>
     <row r="551">
       <c r="A551" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>1</v>
@@ -6467,7 +6470,7 @@
     </row>
     <row r="552">
       <c r="A552" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>1</v>
@@ -6478,7 +6481,7 @@
     </row>
     <row r="553">
       <c r="A553" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>1</v>
@@ -6489,7 +6492,7 @@
     </row>
     <row r="554">
       <c r="A554" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>1</v>
@@ -6500,7 +6503,7 @@
     </row>
     <row r="555">
       <c r="A555" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>1</v>
@@ -6511,7 +6514,7 @@
     </row>
     <row r="556">
       <c r="A556" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>1</v>
@@ -6522,7 +6525,7 @@
     </row>
     <row r="557">
       <c r="A557" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>1</v>
@@ -6533,7 +6536,7 @@
     </row>
     <row r="558">
       <c r="A558" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>1</v>
@@ -6544,7 +6547,7 @@
     </row>
     <row r="559">
       <c r="A559" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B559" s="1" t="s">
         <v>1</v>
@@ -6555,7 +6558,7 @@
     </row>
     <row r="560">
       <c r="A560" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>1</v>
@@ -6566,7 +6569,7 @@
     </row>
     <row r="561">
       <c r="A561" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>1</v>
@@ -6577,7 +6580,7 @@
     </row>
     <row r="562">
       <c r="A562" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>1</v>
@@ -6588,7 +6591,7 @@
     </row>
     <row r="563">
       <c r="A563" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>1</v>
@@ -6599,7 +6602,7 @@
     </row>
     <row r="564">
       <c r="A564" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>1</v>
@@ -6610,7 +6613,7 @@
     </row>
     <row r="565">
       <c r="A565" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>1</v>
@@ -6885,7 +6888,7 @@
     </row>
     <row r="590">
       <c r="A590" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>1</v>
@@ -6896,7 +6899,7 @@
     </row>
     <row r="591">
       <c r="A591" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>1</v>
@@ -6907,7 +6910,7 @@
     </row>
     <row r="592">
       <c r="A592" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>1</v>
@@ -6918,7 +6921,7 @@
     </row>
     <row r="593">
       <c r="A593" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>1</v>
@@ -6929,7 +6932,7 @@
     </row>
     <row r="594">
       <c r="A594" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B594" s="1" t="s">
         <v>1</v>
@@ -6940,7 +6943,7 @@
     </row>
     <row r="595">
       <c r="A595" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B595" s="1" t="s">
         <v>1</v>
@@ -6951,7 +6954,7 @@
     </row>
     <row r="596">
       <c r="A596" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B596" s="1" t="s">
         <v>1</v>
@@ -6962,7 +6965,7 @@
     </row>
     <row r="597">
       <c r="A597" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B597" s="1" t="s">
         <v>1</v>
@@ -6973,7 +6976,7 @@
     </row>
     <row r="598">
       <c r="A598" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B598" s="1" t="s">
         <v>1</v>
@@ -6984,7 +6987,7 @@
     </row>
     <row r="599">
       <c r="A599" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>1</v>
@@ -6995,7 +6998,7 @@
     </row>
     <row r="600">
       <c r="A600" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>1</v>
@@ -7006,7 +7009,7 @@
     </row>
     <row r="601">
       <c r="A601" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B601" s="1" t="s">
         <v>1</v>
@@ -7017,7 +7020,7 @@
     </row>
     <row r="602">
       <c r="A602" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B602" s="1" t="s">
         <v>1</v>
@@ -7028,7 +7031,7 @@
     </row>
     <row r="603">
       <c r="A603" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>1</v>
@@ -7039,7 +7042,7 @@
     </row>
     <row r="604">
       <c r="A604" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B604" s="1" t="s">
         <v>1</v>
@@ -7050,7 +7053,7 @@
     </row>
     <row r="605">
       <c r="A605" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>1</v>
@@ -7061,7 +7064,7 @@
     </row>
     <row r="606">
       <c r="A606" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B606" s="1" t="s">
         <v>1</v>
@@ -7072,7 +7075,7 @@
     </row>
     <row r="607">
       <c r="A607" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B607" s="1" t="s">
         <v>1</v>
@@ -7083,7 +7086,7 @@
     </row>
     <row r="608">
       <c r="A608" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B608" s="1" t="s">
         <v>1</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="609">
       <c r="A609" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B609" s="1" t="s">
         <v>1</v>
@@ -7105,7 +7108,7 @@
     </row>
     <row r="610">
       <c r="A610" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B610" s="1" t="s">
         <v>1</v>
@@ -7116,7 +7119,7 @@
     </row>
     <row r="611">
       <c r="A611" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>1</v>
@@ -7127,7 +7130,7 @@
     </row>
     <row r="612">
       <c r="A612" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B612" s="1" t="s">
         <v>1</v>
@@ -7138,7 +7141,7 @@
     </row>
     <row r="613">
       <c r="A613" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B613" s="1" t="s">
         <v>1</v>
@@ -7149,7 +7152,7 @@
     </row>
     <row r="614">
       <c r="A614" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B614" s="1" t="s">
         <v>1</v>
@@ -7160,7 +7163,7 @@
     </row>
     <row r="615">
       <c r="A615" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B615" s="1" t="s">
         <v>1</v>
@@ -7413,7 +7416,7 @@
     </row>
     <row r="638">
       <c r="A638" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B638" s="1" t="s">
         <v>1</v>
@@ -7424,7 +7427,7 @@
     </row>
     <row r="639">
       <c r="A639" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B639" s="1" t="s">
         <v>1</v>
@@ -7435,7 +7438,7 @@
     </row>
     <row r="640">
       <c r="A640" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B640" s="1" t="s">
         <v>1</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="641">
       <c r="A641" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B641" s="1" t="s">
         <v>1</v>
@@ -7457,7 +7460,7 @@
     </row>
     <row r="642">
       <c r="A642" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B642" s="1" t="s">
         <v>1</v>
@@ -7468,7 +7471,7 @@
     </row>
     <row r="643">
       <c r="A643" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B643" s="1" t="s">
         <v>1</v>
@@ -7479,7 +7482,7 @@
     </row>
     <row r="644">
       <c r="A644" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B644" s="1" t="s">
         <v>1</v>
@@ -7490,7 +7493,7 @@
     </row>
     <row r="645">
       <c r="A645" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B645" s="1" t="s">
         <v>1</v>
@@ -7501,7 +7504,7 @@
     </row>
     <row r="646">
       <c r="A646" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B646" s="1" t="s">
         <v>1</v>
@@ -7512,7 +7515,7 @@
     </row>
     <row r="647">
       <c r="A647" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B647" s="1" t="s">
         <v>1</v>
@@ -7523,7 +7526,7 @@
     </row>
     <row r="648">
       <c r="A648" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B648" s="1" t="s">
         <v>1</v>
@@ -7534,7 +7537,7 @@
     </row>
     <row r="649">
       <c r="A649" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B649" s="1" t="s">
         <v>1</v>
@@ -7545,7 +7548,7 @@
     </row>
     <row r="650">
       <c r="A650" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B650" s="1" t="s">
         <v>1</v>
@@ -7556,7 +7559,7 @@
     </row>
     <row r="651">
       <c r="A651" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B651" s="1" t="s">
         <v>1</v>
@@ -7567,7 +7570,7 @@
     </row>
     <row r="652">
       <c r="A652" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B652" s="1" t="s">
         <v>1</v>
@@ -7578,7 +7581,7 @@
     </row>
     <row r="653">
       <c r="A653" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B653" s="1" t="s">
         <v>1</v>
@@ -7589,7 +7592,7 @@
     </row>
     <row r="654">
       <c r="A654" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B654" s="1" t="s">
         <v>1</v>
@@ -7600,7 +7603,7 @@
     </row>
     <row r="655">
       <c r="A655" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B655" s="1" t="s">
         <v>1</v>
@@ -7611,7 +7614,7 @@
     </row>
     <row r="656">
       <c r="A656" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B656" s="1" t="s">
         <v>1</v>
@@ -7622,7 +7625,7 @@
     </row>
     <row r="657">
       <c r="A657" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B657" s="1" t="s">
         <v>1</v>
@@ -7633,7 +7636,7 @@
     </row>
     <row r="658">
       <c r="A658" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B658" s="1" t="s">
         <v>1</v>
@@ -7644,7 +7647,7 @@
     </row>
     <row r="659">
       <c r="A659" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B659" s="1" t="s">
         <v>1</v>
@@ -7655,7 +7658,7 @@
     </row>
     <row r="660">
       <c r="A660" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B660" s="1" t="s">
         <v>1</v>
@@ -7666,7 +7669,7 @@
     </row>
     <row r="661">
       <c r="A661" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B661" s="1" t="s">
         <v>1</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="662">
       <c r="A662" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B662" s="1" t="s">
         <v>1</v>
@@ -7688,7 +7691,7 @@
     </row>
     <row r="663">
       <c r="A663" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B663" s="1" t="s">
         <v>1</v>
@@ -7699,7 +7702,7 @@
     </row>
     <row r="664">
       <c r="A664" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B664" s="1" t="s">
         <v>1</v>
@@ -7710,7 +7713,7 @@
     </row>
     <row r="665">
       <c r="A665" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B665" s="1" t="s">
         <v>1</v>
@@ -7842,7 +7845,7 @@
     </row>
     <row r="677">
       <c r="A677" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B677" s="1" t="s">
         <v>1</v>
@@ -7853,7 +7856,7 @@
     </row>
     <row r="678">
       <c r="A678" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B678" s="1" t="s">
         <v>1</v>
@@ -7864,7 +7867,7 @@
     </row>
     <row r="679">
       <c r="A679" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B679" s="1" t="s">
         <v>1</v>
@@ -7875,7 +7878,7 @@
     </row>
     <row r="680">
       <c r="A680" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B680" s="1" t="s">
         <v>1</v>
@@ -7886,7 +7889,7 @@
     </row>
     <row r="681">
       <c r="A681" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B681" s="1" t="s">
         <v>1</v>
@@ -7897,7 +7900,7 @@
     </row>
     <row r="682">
       <c r="A682" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B682" s="1" t="s">
         <v>1</v>
@@ -7908,7 +7911,7 @@
     </row>
     <row r="683">
       <c r="A683" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B683" s="1" t="s">
         <v>1</v>
@@ -7919,7 +7922,7 @@
     </row>
     <row r="684">
       <c r="A684" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B684" s="1" t="s">
         <v>1</v>
@@ -7930,7 +7933,7 @@
     </row>
     <row r="685">
       <c r="A685" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B685" s="1" t="s">
         <v>1</v>
@@ -7941,7 +7944,7 @@
     </row>
     <row r="686">
       <c r="A686" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B686" s="1" t="s">
         <v>1</v>
@@ -7952,7 +7955,7 @@
     </row>
     <row r="687">
       <c r="A687" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B687" s="1" t="s">
         <v>1</v>
@@ -7963,7 +7966,7 @@
     </row>
     <row r="688">
       <c r="A688" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B688" s="1" t="s">
         <v>1</v>
@@ -7974,7 +7977,7 @@
     </row>
     <row r="689">
       <c r="A689" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B689" s="1" t="s">
         <v>1</v>
@@ -7985,7 +7988,7 @@
     </row>
     <row r="690">
       <c r="A690" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B690" s="1" t="s">
         <v>1</v>
@@ -7996,7 +7999,7 @@
     </row>
     <row r="691">
       <c r="A691" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B691" s="1" t="s">
         <v>1</v>
@@ -8007,7 +8010,7 @@
     </row>
     <row r="692">
       <c r="A692" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B692" s="1" t="s">
         <v>1</v>
@@ -8018,7 +8021,7 @@
     </row>
     <row r="693">
       <c r="A693" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B693" s="1" t="s">
         <v>1</v>
@@ -8029,7 +8032,7 @@
     </row>
     <row r="694">
       <c r="A694" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B694" s="1" t="s">
         <v>1</v>
@@ -8040,7 +8043,7 @@
     </row>
     <row r="695">
       <c r="A695" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>1</v>
@@ -8051,7 +8054,7 @@
     </row>
     <row r="696">
       <c r="A696" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B696" s="1" t="s">
         <v>1</v>
@@ -8062,7 +8065,7 @@
     </row>
     <row r="697">
       <c r="A697" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B697" s="1" t="s">
         <v>1</v>
@@ -8073,7 +8076,7 @@
     </row>
     <row r="698">
       <c r="A698" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B698" s="1" t="s">
         <v>1</v>
@@ -8084,7 +8087,7 @@
     </row>
     <row r="699">
       <c r="A699" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B699" s="1" t="s">
         <v>1</v>
@@ -8095,7 +8098,7 @@
     </row>
     <row r="700">
       <c r="A700" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B700" s="1" t="s">
         <v>1</v>
@@ -8106,7 +8109,7 @@
     </row>
     <row r="701">
       <c r="A701" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B701" s="1" t="s">
         <v>1</v>
@@ -8117,7 +8120,7 @@
     </row>
     <row r="702">
       <c r="A702" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B702" s="1" t="s">
         <v>1</v>
@@ -8128,7 +8131,7 @@
     </row>
     <row r="703">
       <c r="A703" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B703" s="1" t="s">
         <v>1</v>
@@ -8139,7 +8142,7 @@
     </row>
     <row r="704">
       <c r="A704" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B704" s="1" t="s">
         <v>1</v>
@@ -8150,7 +8153,7 @@
     </row>
     <row r="705">
       <c r="A705" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B705" s="1" t="s">
         <v>1</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="706">
       <c r="A706" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B706" s="1" t="s">
         <v>1</v>
@@ -8172,7 +8175,7 @@
     </row>
     <row r="707">
       <c r="A707" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B707" s="1" t="s">
         <v>1</v>
@@ -8183,7 +8186,7 @@
     </row>
     <row r="708">
       <c r="A708" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B708" s="1" t="s">
         <v>1</v>
@@ -8194,7 +8197,7 @@
     </row>
     <row r="709">
       <c r="A709" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B709" s="1" t="s">
         <v>1</v>
@@ -8205,7 +8208,7 @@
     </row>
     <row r="710">
       <c r="A710" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B710" s="1" t="s">
         <v>1</v>
@@ -8216,7 +8219,7 @@
     </row>
     <row r="711">
       <c r="A711" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B711" s="1" t="s">
         <v>1</v>
@@ -8227,7 +8230,7 @@
     </row>
     <row r="712">
       <c r="A712" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B712" s="1" t="s">
         <v>1</v>
@@ -8238,7 +8241,7 @@
     </row>
     <row r="713">
       <c r="A713" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B713" s="1" t="s">
         <v>1</v>
@@ -8249,7 +8252,7 @@
     </row>
     <row r="714">
       <c r="A714" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B714" s="1" t="s">
         <v>1</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="715">
       <c r="A715" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B715" s="1" t="s">
         <v>1</v>
@@ -8271,7 +8274,7 @@
     </row>
     <row r="716">
       <c r="A716" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B716" s="1" t="s">
         <v>1</v>
@@ -8282,7 +8285,7 @@
     </row>
     <row r="717">
       <c r="A717" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B717" s="1" t="s">
         <v>1</v>
@@ -8293,7 +8296,7 @@
     </row>
     <row r="718">
       <c r="A718" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>1</v>
@@ -8304,7 +8307,7 @@
     </row>
     <row r="719">
       <c r="A719" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B719" s="1" t="s">
         <v>1</v>
@@ -8315,7 +8318,7 @@
     </row>
     <row r="720">
       <c r="A720" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B720" s="1" t="s">
         <v>1</v>
@@ -8326,7 +8329,7 @@
     </row>
     <row r="721">
       <c r="A721" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B721" s="1" t="s">
         <v>1</v>
@@ -8337,7 +8340,7 @@
     </row>
     <row r="722">
       <c r="A722" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B722" s="1" t="s">
         <v>1</v>
@@ -8348,7 +8351,7 @@
     </row>
     <row r="723">
       <c r="A723" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B723" s="1" t="s">
         <v>1</v>
@@ -8359,7 +8362,7 @@
     </row>
     <row r="724">
       <c r="A724" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B724" s="1" t="s">
         <v>1</v>
@@ -8370,7 +8373,7 @@
     </row>
     <row r="725">
       <c r="A725" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B725" s="1" t="s">
         <v>1</v>
@@ -8381,7 +8384,7 @@
     </row>
     <row r="726">
       <c r="A726" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B726" s="1" t="s">
         <v>1</v>
@@ -8392,7 +8395,7 @@
     </row>
     <row r="727">
       <c r="A727" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B727" s="1" t="s">
         <v>1</v>
@@ -8403,7 +8406,7 @@
     </row>
     <row r="728">
       <c r="A728" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B728" s="1" t="s">
         <v>1</v>
@@ -8414,7 +8417,7 @@
     </row>
     <row r="729">
       <c r="A729" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B729" s="1" t="s">
         <v>1</v>
@@ -8425,7 +8428,7 @@
     </row>
     <row r="730">
       <c r="A730" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B730" s="1" t="s">
         <v>1</v>
@@ -8436,7 +8439,7 @@
     </row>
     <row r="731">
       <c r="A731" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B731" s="1" t="s">
         <v>1</v>
@@ -8447,7 +8450,7 @@
     </row>
     <row r="732">
       <c r="A732" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B732" s="1" t="s">
         <v>1</v>
@@ -8458,7 +8461,7 @@
     </row>
     <row r="733">
       <c r="A733" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B733" s="1" t="s">
         <v>1</v>
@@ -8469,7 +8472,7 @@
     </row>
     <row r="734">
       <c r="A734" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B734" s="1" t="s">
         <v>1</v>
@@ -8480,7 +8483,7 @@
     </row>
     <row r="735">
       <c r="A735" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B735" s="1" t="s">
         <v>1</v>
@@ -8491,7 +8494,7 @@
     </row>
     <row r="736">
       <c r="A736" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B736" s="1" t="s">
         <v>1</v>
@@ -8502,7 +8505,7 @@
     </row>
     <row r="737">
       <c r="A737" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B737" s="1" t="s">
         <v>1</v>
@@ -8513,7 +8516,7 @@
     </row>
     <row r="738">
       <c r="A738" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B738" s="1" t="s">
         <v>1</v>
@@ -8524,7 +8527,7 @@
     </row>
     <row r="739">
       <c r="A739" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B739" s="1" t="s">
         <v>1</v>
@@ -8535,7 +8538,7 @@
     </row>
     <row r="740">
       <c r="A740" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B740" s="1" t="s">
         <v>1</v>
@@ -8656,7 +8659,7 @@
     </row>
     <row r="751">
       <c r="A751" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B751" s="1" t="s">
         <v>1</v>
@@ -8667,7 +8670,7 @@
     </row>
     <row r="752">
       <c r="A752" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B752" s="1" t="s">
         <v>1</v>
@@ -8678,7 +8681,7 @@
     </row>
     <row r="753">
       <c r="A753" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B753" s="1" t="s">
         <v>1</v>
@@ -8689,7 +8692,7 @@
     </row>
     <row r="754">
       <c r="A754" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B754" s="1" t="s">
         <v>1</v>
@@ -8700,7 +8703,7 @@
     </row>
     <row r="755">
       <c r="A755" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B755" s="1" t="s">
         <v>1</v>
@@ -8711,7 +8714,7 @@
     </row>
     <row r="756">
       <c r="A756" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B756" s="1" t="s">
         <v>1</v>
@@ -8722,7 +8725,7 @@
     </row>
     <row r="757">
       <c r="A757" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B757" s="1" t="s">
         <v>1</v>
@@ -8733,7 +8736,7 @@
     </row>
     <row r="758">
       <c r="A758" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B758" s="1" t="s">
         <v>1</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="759">
       <c r="A759" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B759" s="1" t="s">
         <v>1</v>
@@ -8755,7 +8758,7 @@
     </row>
     <row r="760">
       <c r="A760" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B760" s="1" t="s">
         <v>1</v>
@@ -8766,7 +8769,7 @@
     </row>
     <row r="761">
       <c r="A761" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B761" s="1" t="s">
         <v>1</v>
@@ -8777,7 +8780,7 @@
     </row>
     <row r="762">
       <c r="A762" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B762" s="1" t="s">
         <v>1</v>
@@ -8788,7 +8791,7 @@
     </row>
     <row r="763">
       <c r="A763" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B763" s="1" t="s">
         <v>1</v>
@@ -8799,7 +8802,7 @@
     </row>
     <row r="764">
       <c r="A764" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B764" s="1" t="s">
         <v>1</v>
@@ -8810,7 +8813,7 @@
     </row>
     <row r="765">
       <c r="A765" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B765" s="1" t="s">
         <v>1</v>
@@ -8821,7 +8824,7 @@
     </row>
     <row r="766">
       <c r="A766" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B766" s="1" t="s">
         <v>1</v>
@@ -8832,7 +8835,7 @@
     </row>
     <row r="767">
       <c r="A767" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B767" s="1" t="s">
         <v>1</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="768">
       <c r="A768" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B768" s="1" t="s">
         <v>1</v>
@@ -8854,7 +8857,7 @@
     </row>
     <row r="769">
       <c r="A769" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B769" s="1" t="s">
         <v>1</v>
@@ -8865,7 +8868,7 @@
     </row>
     <row r="770">
       <c r="A770" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B770" s="1" t="s">
         <v>1</v>
@@ -8876,7 +8879,7 @@
     </row>
     <row r="771">
       <c r="A771" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>1</v>
@@ -8887,7 +8890,7 @@
     </row>
     <row r="772">
       <c r="A772" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B772" s="1" t="s">
         <v>1</v>
@@ -8898,7 +8901,7 @@
     </row>
     <row r="773">
       <c r="A773" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B773" s="1" t="s">
         <v>1</v>
@@ -8909,7 +8912,7 @@
     </row>
     <row r="774">
       <c r="A774" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B774" s="1" t="s">
         <v>1</v>
@@ -8920,7 +8923,7 @@
     </row>
     <row r="775">
       <c r="A775" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B775" s="1" t="s">
         <v>1</v>
@@ -8931,7 +8934,7 @@
     </row>
     <row r="776">
       <c r="A776" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B776" s="1" t="s">
         <v>1</v>
@@ -8942,7 +8945,7 @@
     </row>
     <row r="777">
       <c r="A777" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B777" s="1" t="s">
         <v>1</v>
@@ -8953,7 +8956,7 @@
     </row>
     <row r="778">
       <c r="A778" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B778" s="1" t="s">
         <v>1</v>
@@ -8964,7 +8967,7 @@
     </row>
     <row r="779">
       <c r="A779" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B779" s="1" t="s">
         <v>1</v>
@@ -8975,7 +8978,7 @@
     </row>
     <row r="780">
       <c r="A780" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B780" s="1" t="s">
         <v>1</v>
@@ -9690,7 +9693,7 @@
     </row>
     <row r="845">
       <c r="A845" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B845" s="1" t="s">
         <v>1</v>
@@ -9701,7 +9704,7 @@
     </row>
     <row r="846">
       <c r="A846" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B846" s="1" t="s">
         <v>1</v>
@@ -9712,7 +9715,7 @@
     </row>
     <row r="847">
       <c r="A847" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B847" s="1" t="s">
         <v>1</v>
@@ -9723,7 +9726,7 @@
     </row>
     <row r="848">
       <c r="A848" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B848" s="1" t="s">
         <v>1</v>
@@ -9877,7 +9880,7 @@
     </row>
     <row r="862">
       <c r="A862" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B862" s="1" t="s">
         <v>1</v>
@@ -9888,7 +9891,7 @@
     </row>
     <row r="863">
       <c r="A863" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B863" s="1" t="s">
         <v>1</v>
@@ -9899,7 +9902,7 @@
     </row>
     <row r="864">
       <c r="A864" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B864" s="1" t="s">
         <v>1</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="865">
       <c r="A865" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B865" s="1" t="s">
         <v>1</v>
@@ -9921,7 +9924,7 @@
     </row>
     <row r="866">
       <c r="A866" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B866" s="1" t="s">
         <v>1</v>
@@ -9932,7 +9935,7 @@
     </row>
     <row r="867">
       <c r="A867" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B867" s="1" t="s">
         <v>1</v>
@@ -9943,7 +9946,7 @@
     </row>
     <row r="868">
       <c r="A868" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B868" s="1" t="s">
         <v>1</v>
@@ -9954,7 +9957,7 @@
     </row>
     <row r="869">
       <c r="A869" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B869" s="1" t="s">
         <v>1</v>
@@ -9965,7 +9968,7 @@
     </row>
     <row r="870">
       <c r="A870" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B870" s="1" t="s">
         <v>1</v>
@@ -9976,7 +9979,7 @@
     </row>
     <row r="871">
       <c r="A871" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B871" s="1" t="s">
         <v>1</v>
@@ -9987,7 +9990,7 @@
     </row>
     <row r="872">
       <c r="A872" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B872" s="1" t="s">
         <v>1</v>
@@ -9998,7 +10001,7 @@
     </row>
     <row r="873">
       <c r="A873" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B873" s="1" t="s">
         <v>1</v>
@@ -10009,7 +10012,7 @@
     </row>
     <row r="874">
       <c r="A874" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B874" s="1" t="s">
         <v>1</v>
@@ -10020,7 +10023,7 @@
     </row>
     <row r="875">
       <c r="A875" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B875" s="1" t="s">
         <v>1</v>
@@ -10031,7 +10034,7 @@
     </row>
     <row r="876">
       <c r="A876" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B876" s="1" t="s">
         <v>1</v>
@@ -10042,7 +10045,7 @@
     </row>
     <row r="877">
       <c r="A877" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B877" s="1" t="s">
         <v>1</v>
@@ -10053,7 +10056,7 @@
     </row>
     <row r="878">
       <c r="A878" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B878" s="1" t="s">
         <v>1</v>
@@ -10064,7 +10067,7 @@
     </row>
     <row r="879">
       <c r="A879" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B879" s="1" t="s">
         <v>1</v>
@@ -10075,7 +10078,7 @@
     </row>
     <row r="880">
       <c r="A880" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B880" s="1" t="s">
         <v>1</v>
@@ -10086,7 +10089,7 @@
     </row>
     <row r="881">
       <c r="A881" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B881" s="1" t="s">
         <v>1</v>
@@ -10097,7 +10100,7 @@
     </row>
     <row r="882">
       <c r="A882" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B882" s="1" t="s">
         <v>1</v>
@@ -10108,7 +10111,7 @@
     </row>
     <row r="883">
       <c r="A883" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B883" s="1" t="s">
         <v>1</v>
@@ -10427,7 +10430,7 @@
     </row>
     <row r="912">
       <c r="A912" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B912" s="1" t="s">
         <v>1</v>
@@ -10438,7 +10441,7 @@
     </row>
     <row r="913">
       <c r="A913" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B913" s="1" t="s">
         <v>1</v>
@@ -10449,7 +10452,7 @@
     </row>
     <row r="914">
       <c r="A914" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B914" s="1" t="s">
         <v>1</v>
@@ -10460,7 +10463,7 @@
     </row>
     <row r="915">
       <c r="A915" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B915" s="1" t="s">
         <v>1</v>
@@ -10471,7 +10474,7 @@
     </row>
     <row r="916">
       <c r="A916" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B916" s="1" t="s">
         <v>1</v>
@@ -10482,7 +10485,7 @@
     </row>
     <row r="917">
       <c r="A917" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B917" s="1" t="s">
         <v>1</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="918">
       <c r="A918" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B918" s="1" t="s">
         <v>1</v>
@@ -10504,7 +10507,7 @@
     </row>
     <row r="919">
       <c r="A919" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B919" s="1" t="s">
         <v>1</v>
@@ -10515,7 +10518,7 @@
     </row>
     <row r="920">
       <c r="A920" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B920" s="1" t="s">
         <v>1</v>
@@ -10526,7 +10529,7 @@
     </row>
     <row r="921">
       <c r="A921" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B921" s="1" t="s">
         <v>1</v>
@@ -10537,7 +10540,7 @@
     </row>
     <row r="922">
       <c r="A922" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B922" s="1" t="s">
         <v>1</v>
@@ -10548,7 +10551,7 @@
     </row>
     <row r="923">
       <c r="A923" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B923" s="1" t="s">
         <v>1</v>
@@ -10559,7 +10562,7 @@
     </row>
     <row r="924">
       <c r="A924" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B924" s="1" t="s">
         <v>1</v>
@@ -10570,7 +10573,7 @@
     </row>
     <row r="925">
       <c r="A925" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B925" s="1" t="s">
         <v>1</v>
@@ -10581,7 +10584,7 @@
     </row>
     <row r="926">
       <c r="A926" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B926" s="1" t="s">
         <v>1</v>
@@ -10592,7 +10595,7 @@
     </row>
     <row r="927">
       <c r="A927" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B927" s="1" t="s">
         <v>1</v>
@@ -10603,7 +10606,7 @@
     </row>
     <row r="928">
       <c r="A928" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B928" s="1" t="s">
         <v>1</v>
@@ -10614,7 +10617,7 @@
     </row>
     <row r="929">
       <c r="A929" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B929" s="1" t="s">
         <v>1</v>
@@ -10625,7 +10628,7 @@
     </row>
     <row r="930">
       <c r="A930" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B930" s="1" t="s">
         <v>1</v>
@@ -10636,7 +10639,7 @@
     </row>
     <row r="931">
       <c r="A931" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B931" s="1" t="s">
         <v>1</v>
@@ -10647,7 +10650,7 @@
     </row>
     <row r="932">
       <c r="A932" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B932" s="1" t="s">
         <v>1</v>
@@ -10658,7 +10661,7 @@
     </row>
     <row r="933">
       <c r="A933" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B933" s="1" t="s">
         <v>1</v>
@@ -11010,7 +11013,7 @@
     </row>
     <row r="965">
       <c r="A965" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B965" s="1" t="s">
         <v>1</v>
@@ -11021,7 +11024,7 @@
     </row>
     <row r="966">
       <c r="A966" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B966" s="1" t="s">
         <v>1</v>
@@ -11032,7 +11035,7 @@
     </row>
     <row r="967">
       <c r="A967" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B967" s="1" t="s">
         <v>1</v>
@@ -11043,7 +11046,7 @@
     </row>
     <row r="968">
       <c r="A968" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B968" s="1" t="s">
         <v>1</v>
@@ -11054,7 +11057,7 @@
     </row>
     <row r="969">
       <c r="A969" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B969" s="1" t="s">
         <v>1</v>
@@ -11065,7 +11068,7 @@
     </row>
     <row r="970">
       <c r="A970" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B970" s="1" t="s">
         <v>1</v>
@@ -11076,7 +11079,7 @@
     </row>
     <row r="971">
       <c r="A971" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B971" s="1" t="s">
         <v>1</v>
@@ -11087,7 +11090,7 @@
     </row>
     <row r="972">
       <c r="A972" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B972" s="1" t="s">
         <v>1</v>
@@ -11098,7 +11101,7 @@
     </row>
     <row r="973">
       <c r="A973" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B973" s="1" t="s">
         <v>1</v>
@@ -11109,7 +11112,7 @@
     </row>
     <row r="974">
       <c r="A974" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B974" s="1" t="s">
         <v>1</v>
@@ -11120,7 +11123,7 @@
     </row>
     <row r="975">
       <c r="A975" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B975" s="1" t="s">
         <v>1</v>
@@ -11131,7 +11134,7 @@
     </row>
     <row r="976">
       <c r="A976" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B976" s="1" t="s">
         <v>1</v>
@@ -11142,7 +11145,7 @@
     </row>
     <row r="977">
       <c r="A977" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B977" s="1" t="s">
         <v>1</v>
@@ -11153,7 +11156,7 @@
     </row>
     <row r="978">
       <c r="A978" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B978" s="1" t="s">
         <v>1</v>
@@ -11164,7 +11167,7 @@
     </row>
     <row r="979">
       <c r="A979" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B979" s="1" t="s">
         <v>1</v>
@@ -11175,7 +11178,7 @@
     </row>
     <row r="980">
       <c r="A980" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B980" s="1" t="s">
         <v>1</v>
@@ -11186,7 +11189,7 @@
     </row>
     <row r="981">
       <c r="A981" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B981" s="1" t="s">
         <v>1</v>
@@ -11197,7 +11200,7 @@
     </row>
     <row r="982">
       <c r="A982" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B982" s="1" t="s">
         <v>1</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="983">
       <c r="A983" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B983" s="1" t="s">
         <v>1</v>
@@ -11681,7 +11684,7 @@
     </row>
     <row r="1026">
       <c r="A1026" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1026" s="1" t="s">
         <v>1</v>
@@ -11692,7 +11695,7 @@
     </row>
     <row r="1027">
       <c r="A1027" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1027" s="1" t="s">
         <v>1</v>
@@ -11703,7 +11706,7 @@
     </row>
     <row r="1028">
       <c r="A1028" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1028" s="1" t="s">
         <v>1</v>
@@ -11714,7 +11717,7 @@
     </row>
     <row r="1029">
       <c r="A1029" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1029" s="1" t="s">
         <v>1</v>
@@ -11725,7 +11728,7 @@
     </row>
     <row r="1030">
       <c r="A1030" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1030" s="1" t="s">
         <v>1</v>
@@ -11736,7 +11739,7 @@
     </row>
     <row r="1031">
       <c r="A1031" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1031" s="1" t="s">
         <v>1</v>
@@ -11747,7 +11750,7 @@
     </row>
     <row r="1032">
       <c r="A1032" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1032" s="1" t="s">
         <v>1</v>
@@ -11758,7 +11761,7 @@
     </row>
     <row r="1033">
       <c r="A1033" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1033" s="1" t="s">
         <v>1</v>
@@ -12121,7 +12124,7 @@
     </row>
     <row r="1066">
       <c r="A1066" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1066" s="1" t="s">
         <v>1</v>
@@ -12132,7 +12135,7 @@
     </row>
     <row r="1067">
       <c r="A1067" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1067" s="1" t="s">
         <v>1</v>
@@ -12143,7 +12146,7 @@
     </row>
     <row r="1068">
       <c r="A1068" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1068" s="1" t="s">
         <v>1</v>
@@ -12154,7 +12157,7 @@
     </row>
     <row r="1069">
       <c r="A1069" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1069" s="1" t="s">
         <v>1</v>
@@ -12165,7 +12168,7 @@
     </row>
     <row r="1070">
       <c r="A1070" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1070" s="1" t="s">
         <v>1</v>
@@ -12176,7 +12179,7 @@
     </row>
     <row r="1071">
       <c r="A1071" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1071" s="1" t="s">
         <v>1</v>
@@ -12187,7 +12190,7 @@
     </row>
     <row r="1072">
       <c r="A1072" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1072" s="1" t="s">
         <v>1</v>
@@ -12198,7 +12201,7 @@
     </row>
     <row r="1073">
       <c r="A1073" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1073" s="1" t="s">
         <v>1</v>
@@ -12209,7 +12212,7 @@
     </row>
     <row r="1074">
       <c r="A1074" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1074" s="1" t="s">
         <v>1</v>
@@ -12220,7 +12223,7 @@
     </row>
     <row r="1075">
       <c r="A1075" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1075" s="1" t="s">
         <v>1</v>
@@ -12231,7 +12234,7 @@
     </row>
     <row r="1076">
       <c r="A1076" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1076" s="1" t="s">
         <v>1</v>
@@ -12242,7 +12245,7 @@
     </row>
     <row r="1077">
       <c r="A1077" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1077" s="1" t="s">
         <v>1</v>
@@ -12253,7 +12256,7 @@
     </row>
     <row r="1078">
       <c r="A1078" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1078" s="1" t="s">
         <v>1</v>
@@ -12264,7 +12267,7 @@
     </row>
     <row r="1079">
       <c r="A1079" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1079" s="1" t="s">
         <v>1</v>
@@ -12275,7 +12278,7 @@
     </row>
     <row r="1080">
       <c r="A1080" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1080" s="1" t="s">
         <v>1</v>
@@ -12286,7 +12289,7 @@
     </row>
     <row r="1081">
       <c r="A1081" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1081" s="1" t="s">
         <v>1</v>
@@ -12297,7 +12300,7 @@
     </row>
     <row r="1082">
       <c r="A1082" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1082" s="1" t="s">
         <v>1</v>
@@ -12308,7 +12311,7 @@
     </row>
     <row r="1083">
       <c r="A1083" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1083" s="1" t="s">
         <v>1</v>
@@ -12649,7 +12652,7 @@
     </row>
     <row r="1114">
       <c r="A1114" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1114" s="1" t="s">
         <v>1</v>
@@ -12660,7 +12663,7 @@
     </row>
     <row r="1115">
       <c r="A1115" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1115" s="1" t="s">
         <v>1</v>
@@ -12671,7 +12674,7 @@
     </row>
     <row r="1116">
       <c r="A1116" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1116" s="1" t="s">
         <v>1</v>
@@ -12682,7 +12685,7 @@
     </row>
     <row r="1117">
       <c r="A1117" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1117" s="1" t="s">
         <v>1</v>
@@ -12693,7 +12696,7 @@
     </row>
     <row r="1118">
       <c r="A1118" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1118" s="1" t="s">
         <v>1</v>
@@ -12704,7 +12707,7 @@
     </row>
     <row r="1119">
       <c r="A1119" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1119" s="1" t="s">
         <v>1</v>
@@ -12715,7 +12718,7 @@
     </row>
     <row r="1120">
       <c r="A1120" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1120" s="1" t="s">
         <v>1</v>
@@ -12726,7 +12729,7 @@
     </row>
     <row r="1121">
       <c r="A1121" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1121" s="1" t="s">
         <v>1</v>
@@ -12737,7 +12740,7 @@
     </row>
     <row r="1122">
       <c r="A1122" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1122" s="1" t="s">
         <v>1</v>
@@ -12748,7 +12751,7 @@
     </row>
     <row r="1123">
       <c r="A1123" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1123" s="1" t="s">
         <v>1</v>
@@ -12759,7 +12762,7 @@
     </row>
     <row r="1124">
       <c r="A1124" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1124" s="1" t="s">
         <v>1</v>
@@ -12770,7 +12773,7 @@
     </row>
     <row r="1125">
       <c r="A1125" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1125" s="1" t="s">
         <v>1</v>
@@ -13166,7 +13169,7 @@
     </row>
     <row r="1161">
       <c r="A1161" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1161" s="1" t="s">
         <v>1</v>
@@ -13177,7 +13180,7 @@
     </row>
     <row r="1162">
       <c r="A1162" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1162" s="1" t="s">
         <v>1</v>
@@ -13188,7 +13191,7 @@
     </row>
     <row r="1163">
       <c r="A1163" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1163" s="1" t="s">
         <v>1</v>
@@ -13199,7 +13202,7 @@
     </row>
     <row r="1164">
       <c r="A1164" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1164" s="1" t="s">
         <v>1</v>
@@ -13210,7 +13213,7 @@
     </row>
     <row r="1165">
       <c r="A1165" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1165" s="1" t="s">
         <v>1</v>
@@ -13221,7 +13224,7 @@
     </row>
     <row r="1166">
       <c r="A1166" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1166" s="1" t="s">
         <v>1</v>
@@ -13232,7 +13235,7 @@
     </row>
     <row r="1167">
       <c r="A1167" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1167" s="1" t="s">
         <v>1</v>
@@ -13243,7 +13246,7 @@
     </row>
     <row r="1168">
       <c r="A1168" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1168" s="1" t="s">
         <v>1</v>
@@ -13254,7 +13257,7 @@
     </row>
     <row r="1169">
       <c r="A1169" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1169" s="1" t="s">
         <v>1</v>
@@ -13265,7 +13268,7 @@
     </row>
     <row r="1170">
       <c r="A1170" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1170" s="1" t="s">
         <v>1</v>
@@ -13276,7 +13279,7 @@
     </row>
     <row r="1171">
       <c r="A1171" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1171" s="1" t="s">
         <v>1</v>
@@ -13287,7 +13290,7 @@
     </row>
     <row r="1172">
       <c r="A1172" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1172" s="1" t="s">
         <v>1</v>
@@ -13298,7 +13301,7 @@
     </row>
     <row r="1173">
       <c r="A1173" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1173" s="1" t="s">
         <v>1</v>
@@ -13309,7 +13312,7 @@
     </row>
     <row r="1174">
       <c r="A1174" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1174" s="1" t="s">
         <v>1</v>
@@ -13320,7 +13323,7 @@
     </row>
     <row r="1175">
       <c r="A1175" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1175" s="1" t="s">
         <v>1</v>
@@ -13694,7 +13697,7 @@
     </row>
     <row r="1209">
       <c r="A1209" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1209" s="1" t="s">
         <v>1</v>
@@ -13705,7 +13708,7 @@
     </row>
     <row r="1210">
       <c r="A1210" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1210" s="1" t="s">
         <v>1</v>
@@ -13716,7 +13719,7 @@
     </row>
     <row r="1211">
       <c r="A1211" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1211" s="1" t="s">
         <v>1</v>
@@ -13727,7 +13730,7 @@
     </row>
     <row r="1212">
       <c r="A1212" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1212" s="1" t="s">
         <v>1</v>
@@ -13738,7 +13741,7 @@
     </row>
     <row r="1213">
       <c r="A1213" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1213" s="1" t="s">
         <v>1</v>
@@ -13749,7 +13752,7 @@
     </row>
     <row r="1214">
       <c r="A1214" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1214" s="1" t="s">
         <v>1</v>
@@ -13760,7 +13763,7 @@
     </row>
     <row r="1215">
       <c r="A1215" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1215" s="1" t="s">
         <v>1</v>
@@ -13771,7 +13774,7 @@
     </row>
     <row r="1216">
       <c r="A1216" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1216" s="1" t="s">
         <v>1</v>
@@ -13782,7 +13785,7 @@
     </row>
     <row r="1217">
       <c r="A1217" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1217" s="1" t="s">
         <v>1</v>
@@ -13793,7 +13796,7 @@
     </row>
     <row r="1218">
       <c r="A1218" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1218" s="1" t="s">
         <v>1</v>
@@ -13804,7 +13807,7 @@
     </row>
     <row r="1219">
       <c r="A1219" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1219" s="1" t="s">
         <v>1</v>
@@ -13815,7 +13818,7 @@
     </row>
     <row r="1220">
       <c r="A1220" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1220" s="1" t="s">
         <v>1</v>
@@ -13826,7 +13829,7 @@
     </row>
     <row r="1221">
       <c r="A1221" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1221" s="1" t="s">
         <v>1</v>
@@ -13837,7 +13840,7 @@
     </row>
     <row r="1222">
       <c r="A1222" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1222" s="1" t="s">
         <v>1</v>
@@ -13848,7 +13851,7 @@
     </row>
     <row r="1223">
       <c r="A1223" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1223" s="1" t="s">
         <v>1</v>
@@ -13859,7 +13862,7 @@
     </row>
     <row r="1224">
       <c r="A1224" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1224" s="1" t="s">
         <v>1</v>
@@ -13870,7 +13873,7 @@
     </row>
     <row r="1225">
       <c r="A1225" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1225" s="1" t="s">
         <v>1</v>
@@ -14266,7 +14269,7 @@
     </row>
     <row r="1261">
       <c r="A1261" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1261" s="1" t="s">
         <v>1</v>
@@ -14277,7 +14280,7 @@
     </row>
     <row r="1262">
       <c r="A1262" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1262" s="1" t="s">
         <v>1</v>
@@ -14288,7 +14291,7 @@
     </row>
     <row r="1263">
       <c r="A1263" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1263" s="1" t="s">
         <v>1</v>
@@ -14299,7 +14302,7 @@
     </row>
     <row r="1264">
       <c r="A1264" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1264" s="1" t="s">
         <v>1</v>
@@ -14310,7 +14313,7 @@
     </row>
     <row r="1265">
       <c r="A1265" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1265" s="1" t="s">
         <v>1</v>
@@ -14321,7 +14324,7 @@
     </row>
     <row r="1266">
       <c r="A1266" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1266" s="1" t="s">
         <v>1</v>
@@ -14332,7 +14335,7 @@
     </row>
     <row r="1267">
       <c r="A1267" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1267" s="1" t="s">
         <v>1</v>
@@ -14343,7 +14346,7 @@
     </row>
     <row r="1268">
       <c r="A1268" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1268" s="1" t="s">
         <v>1</v>
@@ -14354,7 +14357,7 @@
     </row>
     <row r="1269">
       <c r="A1269" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1269" s="1" t="s">
         <v>1</v>
@@ -14365,7 +14368,7 @@
     </row>
     <row r="1270">
       <c r="A1270" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1270" s="1" t="s">
         <v>1</v>
@@ -14376,7 +14379,7 @@
     </row>
     <row r="1271">
       <c r="A1271" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1271" s="1" t="s">
         <v>1</v>
@@ -14387,7 +14390,7 @@
     </row>
     <row r="1272">
       <c r="A1272" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1272" s="1" t="s">
         <v>1</v>
@@ -14398,7 +14401,7 @@
     </row>
     <row r="1273">
       <c r="A1273" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1273" s="1" t="s">
         <v>1</v>
@@ -14409,7 +14412,7 @@
     </row>
     <row r="1274">
       <c r="A1274" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1274" s="1" t="s">
         <v>1</v>
@@ -14420,7 +14423,7 @@
     </row>
     <row r="1275">
       <c r="A1275" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1275" s="1" t="s">
         <v>1</v>
@@ -14706,7 +14709,7 @@
     </row>
     <row r="1301">
       <c r="A1301" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1301" s="1" t="s">
         <v>1</v>
@@ -14717,7 +14720,7 @@
     </row>
     <row r="1302">
       <c r="A1302" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1302" s="1" t="s">
         <v>1</v>
@@ -14728,7 +14731,7 @@
     </row>
     <row r="1303">
       <c r="A1303" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1303" s="1" t="s">
         <v>1</v>
@@ -14739,7 +14742,7 @@
     </row>
     <row r="1304">
       <c r="A1304" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1304" s="1" t="s">
         <v>1</v>
@@ -14750,7 +14753,7 @@
     </row>
     <row r="1305">
       <c r="A1305" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1305" s="1" t="s">
         <v>1</v>
@@ -14761,7 +14764,7 @@
     </row>
     <row r="1306">
       <c r="A1306" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1306" s="1" t="s">
         <v>1</v>
@@ -14772,7 +14775,7 @@
     </row>
     <row r="1307">
       <c r="A1307" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1307" s="1" t="s">
         <v>1</v>
@@ -14783,7 +14786,7 @@
     </row>
     <row r="1308">
       <c r="A1308" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1308" s="1" t="s">
         <v>1</v>
@@ -14794,7 +14797,7 @@
     </row>
     <row r="1309">
       <c r="A1309" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1309" s="1" t="s">
         <v>1</v>
@@ -14805,7 +14808,7 @@
     </row>
     <row r="1310">
       <c r="A1310" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1310" s="1" t="s">
         <v>1</v>
@@ -14816,7 +14819,7 @@
     </row>
     <row r="1311">
       <c r="A1311" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1311" s="1" t="s">
         <v>1</v>
@@ -14827,7 +14830,7 @@
     </row>
     <row r="1312">
       <c r="A1312" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1312" s="1" t="s">
         <v>1</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="1313">
       <c r="A1313" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1313" s="1" t="s">
         <v>1</v>
@@ -14849,7 +14852,7 @@
     </row>
     <row r="1314">
       <c r="A1314" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1314" s="1" t="s">
         <v>1</v>
@@ -14860,7 +14863,7 @@
     </row>
     <row r="1315">
       <c r="A1315" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1315" s="1" t="s">
         <v>1</v>
@@ -14871,7 +14874,7 @@
     </row>
     <row r="1316">
       <c r="A1316" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1316" s="1" t="s">
         <v>1</v>
@@ -14882,7 +14885,7 @@
     </row>
     <row r="1317">
       <c r="A1317" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1317" s="1" t="s">
         <v>1</v>
@@ -14893,7 +14896,7 @@
     </row>
     <row r="1318">
       <c r="A1318" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1318" s="1" t="s">
         <v>1</v>
@@ -14904,7 +14907,7 @@
     </row>
     <row r="1319">
       <c r="A1319" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1319" s="1" t="s">
         <v>1</v>
@@ -14915,18 +14918,18 @@
     </row>
     <row r="1320">
       <c r="A1320" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1320" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1320" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B1320" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1320" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="1321">
       <c r="A1321" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1321" s="1" t="s">
         <v>1</v>
@@ -14937,7 +14940,7 @@
     </row>
     <row r="1322">
       <c r="A1322" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1322" s="1" t="s">
         <v>1</v>
@@ -14948,7 +14951,7 @@
     </row>
     <row r="1323">
       <c r="A1323" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1323" s="1" t="s">
         <v>1</v>
@@ -14959,7 +14962,7 @@
     </row>
     <row r="1324">
       <c r="A1324" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1324" s="1" t="s">
         <v>1</v>
@@ -14970,7 +14973,7 @@
     </row>
     <row r="1325">
       <c r="A1325" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1325" s="1" t="s">
         <v>1</v>
@@ -14981,7 +14984,7 @@
     </row>
     <row r="1326">
       <c r="A1326" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1326" s="1" t="s">
         <v>1</v>
@@ -14992,7 +14995,7 @@
     </row>
     <row r="1327">
       <c r="A1327" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1327" s="1" t="s">
         <v>1</v>
@@ -15003,7 +15006,7 @@
     </row>
     <row r="1328">
       <c r="A1328" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1328" s="1" t="s">
         <v>1</v>
@@ -15014,7 +15017,7 @@
     </row>
     <row r="1329">
       <c r="A1329" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1329" s="1" t="s">
         <v>1</v>
@@ -15025,7 +15028,7 @@
     </row>
     <row r="1330">
       <c r="A1330" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1330" s="1" t="s">
         <v>1</v>
@@ -15036,7 +15039,7 @@
     </row>
     <row r="1331">
       <c r="A1331" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1331" s="1" t="s">
         <v>1</v>
@@ -15047,7 +15050,7 @@
     </row>
     <row r="1332">
       <c r="A1332" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1332" s="1" t="s">
         <v>1</v>
@@ -15058,7 +15061,7 @@
     </row>
     <row r="1333">
       <c r="A1333" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1333" s="1" t="s">
         <v>1</v>
@@ -15069,7 +15072,7 @@
     </row>
     <row r="1334">
       <c r="A1334" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1334" s="1" t="s">
         <v>1</v>
@@ -15080,7 +15083,7 @@
     </row>
     <row r="1335">
       <c r="A1335" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1335" s="1" t="s">
         <v>1</v>
@@ -15091,7 +15094,7 @@
     </row>
     <row r="1336">
       <c r="A1336" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1336" s="1" t="s">
         <v>1</v>
@@ -15102,7 +15105,7 @@
     </row>
     <row r="1337">
       <c r="A1337" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1337" s="1" t="s">
         <v>1</v>
@@ -15113,7 +15116,7 @@
     </row>
     <row r="1338">
       <c r="A1338" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1338" s="1" t="s">
         <v>1</v>
@@ -15124,7 +15127,7 @@
     </row>
     <row r="1339">
       <c r="A1339" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1339" s="1" t="s">
         <v>1</v>
@@ -15135,7 +15138,7 @@
     </row>
     <row r="1340">
       <c r="A1340" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1340" s="1" t="s">
         <v>1</v>
@@ -15146,7 +15149,7 @@
     </row>
     <row r="1341">
       <c r="A1341" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1341" s="1" t="s">
         <v>1</v>
@@ -15157,7 +15160,7 @@
     </row>
     <row r="1342">
       <c r="A1342" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1342" s="1" t="s">
         <v>1</v>
@@ -15168,7 +15171,7 @@
     </row>
     <row r="1343">
       <c r="A1343" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1343" s="1" t="s">
         <v>1</v>
@@ -15179,7 +15182,7 @@
     </row>
     <row r="1344">
       <c r="A1344" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1344" s="1" t="s">
         <v>1</v>
@@ -15190,7 +15193,7 @@
     </row>
     <row r="1345">
       <c r="A1345" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1345" s="1" t="s">
         <v>1</v>
@@ -15201,7 +15204,7 @@
     </row>
     <row r="1346">
       <c r="A1346" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1346" s="1" t="s">
         <v>1</v>
@@ -15212,7 +15215,7 @@
     </row>
     <row r="1347">
       <c r="A1347" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1347" s="1" t="s">
         <v>1</v>
@@ -15223,7 +15226,7 @@
     </row>
     <row r="1348">
       <c r="A1348" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1348" s="1" t="s">
         <v>1</v>
@@ -15234,7 +15237,7 @@
     </row>
     <row r="1349">
       <c r="A1349" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1349" s="1" t="s">
         <v>1</v>
@@ -15531,7 +15534,7 @@
     </row>
     <row r="1376">
       <c r="A1376" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1376" s="1" t="s">
         <v>1</v>
@@ -15542,7 +15545,7 @@
     </row>
     <row r="1377">
       <c r="A1377" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1377" s="1" t="s">
         <v>1</v>
@@ -15553,7 +15556,7 @@
     </row>
     <row r="1378">
       <c r="A1378" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1378" s="1" t="s">
         <v>1</v>
@@ -15564,7 +15567,7 @@
     </row>
     <row r="1379">
       <c r="A1379" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1379" s="1" t="s">
         <v>1</v>
@@ -15575,7 +15578,7 @@
     </row>
     <row r="1380">
       <c r="A1380" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1380" s="1" t="s">
         <v>1</v>
@@ -15586,7 +15589,7 @@
     </row>
     <row r="1381">
       <c r="A1381" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1381" s="1" t="s">
         <v>1</v>
@@ -15597,7 +15600,7 @@
     </row>
     <row r="1382">
       <c r="A1382" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1382" s="1" t="s">
         <v>1</v>
@@ -15608,7 +15611,7 @@
     </row>
     <row r="1383">
       <c r="A1383" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1383" s="1" t="s">
         <v>1</v>
@@ -15619,7 +15622,7 @@
     </row>
     <row r="1384">
       <c r="A1384" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1384" s="1" t="s">
         <v>1</v>
@@ -15630,7 +15633,7 @@
     </row>
     <row r="1385">
       <c r="A1385" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1385" s="1" t="s">
         <v>1</v>
@@ -15641,7 +15644,7 @@
     </row>
     <row r="1386">
       <c r="A1386" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1386" s="1" t="s">
         <v>1</v>
@@ -15652,7 +15655,7 @@
     </row>
     <row r="1387">
       <c r="A1387" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1387" s="1" t="s">
         <v>1</v>
@@ -15663,7 +15666,7 @@
     </row>
     <row r="1388">
       <c r="A1388" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1388" s="1" t="s">
         <v>1</v>
@@ -15674,7 +15677,7 @@
     </row>
     <row r="1389">
       <c r="A1389" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1389" s="1" t="s">
         <v>1</v>
@@ -15685,7 +15688,7 @@
     </row>
     <row r="1390">
       <c r="A1390" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1390" s="1" t="s">
         <v>1</v>
@@ -15696,7 +15699,7 @@
     </row>
     <row r="1391">
       <c r="A1391" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1391" s="1" t="s">
         <v>1</v>
@@ -15707,7 +15710,7 @@
     </row>
     <row r="1392">
       <c r="A1392" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1392" s="1" t="s">
         <v>1</v>
@@ -15718,7 +15721,7 @@
     </row>
     <row r="1393">
       <c r="A1393" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1393" s="1" t="s">
         <v>1</v>
@@ -15729,7 +15732,7 @@
     </row>
     <row r="1394">
       <c r="A1394" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1394" s="1" t="s">
         <v>1</v>
@@ -15740,7 +15743,7 @@
     </row>
     <row r="1395">
       <c r="A1395" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1395" s="1" t="s">
         <v>1</v>
@@ -15751,7 +15754,7 @@
     </row>
     <row r="1396">
       <c r="A1396" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1396" s="1" t="s">
         <v>1</v>
@@ -15762,7 +15765,7 @@
     </row>
     <row r="1397">
       <c r="A1397" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1397" s="1" t="s">
         <v>1</v>
@@ -15773,7 +15776,7 @@
     </row>
     <row r="1398">
       <c r="A1398" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1398" s="1" t="s">
         <v>1</v>
@@ -16081,7 +16084,7 @@
     </row>
     <row r="1426">
       <c r="A1426" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1426" s="1" t="s">
         <v>1</v>
@@ -16092,7 +16095,7 @@
     </row>
     <row r="1427">
       <c r="A1427" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1427" s="1" t="s">
         <v>1</v>
@@ -16103,7 +16106,7 @@
     </row>
     <row r="1428">
       <c r="A1428" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1428" s="1" t="s">
         <v>1</v>
@@ -16114,7 +16117,7 @@
     </row>
     <row r="1429">
       <c r="A1429" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1429" s="1" t="s">
         <v>1</v>
@@ -16125,7 +16128,7 @@
     </row>
     <row r="1430">
       <c r="A1430" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1430" s="1" t="s">
         <v>1</v>
@@ -16136,7 +16139,7 @@
     </row>
     <row r="1431">
       <c r="A1431" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1431" s="1" t="s">
         <v>1</v>
@@ -16147,7 +16150,7 @@
     </row>
     <row r="1432">
       <c r="A1432" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1432" s="1" t="s">
         <v>1</v>
@@ -16158,7 +16161,7 @@
     </row>
     <row r="1433">
       <c r="A1433" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1433" s="1" t="s">
         <v>1</v>
@@ -16169,7 +16172,7 @@
     </row>
     <row r="1434">
       <c r="A1434" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1434" s="1" t="s">
         <v>1</v>
@@ -16180,7 +16183,7 @@
     </row>
     <row r="1435">
       <c r="A1435" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1435" s="1" t="s">
         <v>1</v>
@@ -16191,7 +16194,7 @@
     </row>
     <row r="1436">
       <c r="A1436" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1436" s="1" t="s">
         <v>1</v>
@@ -16202,7 +16205,7 @@
     </row>
     <row r="1437">
       <c r="A1437" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1437" s="1" t="s">
         <v>1</v>
@@ -16213,18 +16216,18 @@
     </row>
     <row r="1438">
       <c r="A1438" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1438" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1438" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1439" s="1" t="s">
         <v>1</v>
@@ -16235,7 +16238,7 @@
     </row>
     <row r="1440">
       <c r="A1440" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1440" s="1" t="s">
         <v>1</v>
@@ -16246,7 +16249,7 @@
     </row>
     <row r="1441">
       <c r="A1441" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1441" s="1" t="s">
         <v>1</v>
@@ -16257,7 +16260,7 @@
     </row>
     <row r="1442">
       <c r="A1442" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1442" s="1" t="s">
         <v>1</v>
@@ -16268,7 +16271,7 @@
     </row>
     <row r="1443">
       <c r="A1443" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1443" s="1" t="s">
         <v>1</v>
@@ -16279,7 +16282,7 @@
     </row>
     <row r="1444">
       <c r="A1444" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1444" s="1" t="s">
         <v>1</v>
@@ -16290,7 +16293,7 @@
     </row>
     <row r="1445">
       <c r="A1445" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1445" s="1" t="s">
         <v>1</v>
@@ -16301,7 +16304,7 @@
     </row>
     <row r="1446">
       <c r="A1446" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1446" s="1" t="s">
         <v>1</v>
@@ -16312,7 +16315,7 @@
     </row>
     <row r="1447">
       <c r="A1447" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1447" s="1" t="s">
         <v>1</v>
@@ -16323,7 +16326,7 @@
     </row>
     <row r="1448">
       <c r="A1448" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1448" s="1" t="s">
         <v>1</v>
@@ -16631,7 +16634,7 @@
     </row>
     <row r="1476">
       <c r="A1476" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1476" s="1" t="s">
         <v>1</v>
@@ -16642,7 +16645,7 @@
     </row>
     <row r="1477">
       <c r="A1477" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1477" s="1" t="s">
         <v>1</v>
@@ -16653,7 +16656,7 @@
     </row>
     <row r="1478">
       <c r="A1478" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1478" s="1" t="s">
         <v>1</v>
@@ -16664,7 +16667,7 @@
     </row>
     <row r="1479">
       <c r="A1479" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1479" s="1" t="s">
         <v>1</v>
@@ -16675,7 +16678,7 @@
     </row>
     <row r="1480">
       <c r="A1480" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1480" s="1" t="s">
         <v>1</v>
@@ -16686,7 +16689,7 @@
     </row>
     <row r="1481">
       <c r="A1481" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1481" s="1" t="s">
         <v>1</v>
@@ -16697,7 +16700,7 @@
     </row>
     <row r="1482">
       <c r="A1482" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1482" s="1" t="s">
         <v>1</v>
@@ -16708,7 +16711,7 @@
     </row>
     <row r="1483">
       <c r="A1483" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1483" s="1" t="s">
         <v>1</v>
@@ -16719,7 +16722,7 @@
     </row>
     <row r="1484">
       <c r="A1484" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1484" s="1" t="s">
         <v>1</v>
@@ -16730,7 +16733,7 @@
     </row>
     <row r="1485">
       <c r="A1485" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1485" s="1" t="s">
         <v>1</v>
@@ -16741,7 +16744,7 @@
     </row>
     <row r="1486">
       <c r="A1486" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1486" s="1" t="s">
         <v>1</v>
@@ -16752,7 +16755,7 @@
     </row>
     <row r="1487">
       <c r="A1487" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1487" s="1" t="s">
         <v>1</v>
@@ -16763,7 +16766,7 @@
     </row>
     <row r="1488">
       <c r="A1488" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1488" s="1" t="s">
         <v>1</v>
@@ -16774,7 +16777,7 @@
     </row>
     <row r="1489">
       <c r="A1489" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1489" s="1" t="s">
         <v>1</v>
@@ -16785,7 +16788,7 @@
     </row>
     <row r="1490">
       <c r="A1490" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1490" s="1" t="s">
         <v>1</v>
@@ -16796,7 +16799,7 @@
     </row>
     <row r="1491">
       <c r="A1491" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1491" s="1" t="s">
         <v>1</v>
@@ -16807,7 +16810,7 @@
     </row>
     <row r="1492">
       <c r="A1492" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1492" s="1" t="s">
         <v>1</v>
@@ -16818,7 +16821,7 @@
     </row>
     <row r="1493">
       <c r="A1493" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1493" s="1" t="s">
         <v>1</v>
@@ -16829,7 +16832,7 @@
     </row>
     <row r="1494">
       <c r="A1494" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1494" s="1" t="s">
         <v>1</v>
@@ -16840,7 +16843,7 @@
     </row>
     <row r="1495">
       <c r="A1495" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1495" s="1" t="s">
         <v>1</v>
@@ -16851,7 +16854,7 @@
     </row>
     <row r="1496">
       <c r="A1496" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1496" s="1" t="s">
         <v>1</v>
@@ -16862,7 +16865,7 @@
     </row>
     <row r="1497">
       <c r="A1497" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1497" s="1" t="s">
         <v>1</v>
@@ -16873,7 +16876,7 @@
     </row>
     <row r="1498">
       <c r="A1498" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1498" s="1" t="s">
         <v>1</v>
@@ -16884,7 +16887,7 @@
     </row>
     <row r="1499">
       <c r="A1499" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1499" s="1" t="s">
         <v>1</v>
@@ -16895,7 +16898,7 @@
     </row>
     <row r="1500">
       <c r="A1500" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1500" s="1" t="s">
         <v>1</v>
@@ -17181,7 +17184,7 @@
     </row>
     <row r="1526">
       <c r="A1526" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1526" s="1" t="s">
         <v>1</v>
@@ -17192,7 +17195,7 @@
     </row>
     <row r="1527">
       <c r="A1527" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1527" s="1" t="s">
         <v>1</v>
@@ -17203,7 +17206,7 @@
     </row>
     <row r="1528">
       <c r="A1528" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1528" s="1" t="s">
         <v>1</v>
@@ -17214,7 +17217,7 @@
     </row>
     <row r="1529">
       <c r="A1529" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1529" s="1" t="s">
         <v>1</v>
@@ -17225,7 +17228,7 @@
     </row>
     <row r="1530">
       <c r="A1530" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1530" s="1" t="s">
         <v>1</v>
@@ -17236,7 +17239,7 @@
     </row>
     <row r="1531">
       <c r="A1531" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1531" s="1" t="s">
         <v>1</v>
@@ -17247,7 +17250,7 @@
     </row>
     <row r="1532">
       <c r="A1532" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1532" s="1" t="s">
         <v>1</v>
@@ -17258,7 +17261,7 @@
     </row>
     <row r="1533">
       <c r="A1533" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1533" s="1" t="s">
         <v>1</v>
@@ -17269,7 +17272,7 @@
     </row>
     <row r="1534">
       <c r="A1534" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1534" s="1" t="s">
         <v>1</v>
@@ -17280,7 +17283,7 @@
     </row>
     <row r="1535">
       <c r="A1535" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1535" s="1" t="s">
         <v>1</v>
@@ -17291,7 +17294,7 @@
     </row>
     <row r="1536">
       <c r="A1536" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1536" s="1" t="s">
         <v>1</v>
@@ -17302,7 +17305,7 @@
     </row>
     <row r="1537">
       <c r="A1537" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1537" s="1" t="s">
         <v>1</v>
@@ -17313,7 +17316,7 @@
     </row>
     <row r="1538">
       <c r="A1538" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1538" s="1" t="s">
         <v>1</v>
@@ -17324,7 +17327,7 @@
     </row>
     <row r="1539">
       <c r="A1539" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1539" s="1" t="s">
         <v>1</v>
@@ -17335,7 +17338,7 @@
     </row>
     <row r="1540">
       <c r="A1540" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1540" s="1" t="s">
         <v>1</v>
@@ -17346,7 +17349,7 @@
     </row>
     <row r="1541">
       <c r="A1541" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1541" s="1" t="s">
         <v>1</v>
@@ -17357,7 +17360,7 @@
     </row>
     <row r="1542">
       <c r="A1542" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1542" s="1" t="s">
         <v>1</v>
@@ -17368,7 +17371,7 @@
     </row>
     <row r="1543">
       <c r="A1543" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1543" s="1" t="s">
         <v>1</v>
@@ -17379,7 +17382,7 @@
     </row>
     <row r="1544">
       <c r="A1544" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1544" s="1" t="s">
         <v>1</v>
@@ -17390,7 +17393,7 @@
     </row>
     <row r="1545">
       <c r="A1545" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1545" s="1" t="s">
         <v>1</v>
@@ -17401,7 +17404,7 @@
     </row>
     <row r="1546">
       <c r="A1546" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1546" s="1" t="s">
         <v>1</v>
@@ -17412,7 +17415,7 @@
     </row>
     <row r="1547">
       <c r="A1547" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1547" s="1" t="s">
         <v>1</v>
@@ -17423,7 +17426,7 @@
     </row>
     <row r="1548">
       <c r="A1548" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1548" s="1" t="s">
         <v>1</v>
@@ -17731,7 +17734,7 @@
     </row>
     <row r="1576">
       <c r="A1576" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1576" s="1" t="s">
         <v>1</v>
@@ -17742,7 +17745,7 @@
     </row>
     <row r="1577">
       <c r="A1577" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1577" s="1" t="s">
         <v>1</v>
@@ -17753,7 +17756,7 @@
     </row>
     <row r="1578">
       <c r="A1578" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1578" s="1" t="s">
         <v>1</v>
@@ -17764,7 +17767,7 @@
     </row>
     <row r="1579">
       <c r="A1579" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1579" s="1" t="s">
         <v>1</v>
@@ -17775,7 +17778,7 @@
     </row>
     <row r="1580">
       <c r="A1580" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1580" s="1" t="s">
         <v>1</v>
@@ -17786,7 +17789,7 @@
     </row>
     <row r="1581">
       <c r="A1581" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1581" s="1" t="s">
         <v>1</v>
@@ -17797,7 +17800,7 @@
     </row>
     <row r="1582">
       <c r="A1582" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1582" s="1" t="s">
         <v>1</v>
@@ -17808,7 +17811,7 @@
     </row>
     <row r="1583">
       <c r="A1583" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1583" s="1" t="s">
         <v>1</v>
@@ -17819,7 +17822,7 @@
     </row>
     <row r="1584">
       <c r="A1584" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1584" s="1" t="s">
         <v>1</v>
@@ -17830,7 +17833,7 @@
     </row>
     <row r="1585">
       <c r="A1585" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1585" s="1" t="s">
         <v>1</v>
@@ -17841,7 +17844,7 @@
     </row>
     <row r="1586">
       <c r="A1586" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1586" s="1" t="s">
         <v>1</v>
@@ -17852,7 +17855,7 @@
     </row>
     <row r="1587">
       <c r="A1587" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1587" s="1" t="s">
         <v>1</v>
@@ -17863,7 +17866,7 @@
     </row>
     <row r="1588">
       <c r="A1588" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1588" s="1" t="s">
         <v>1</v>
@@ -17874,7 +17877,7 @@
     </row>
     <row r="1589">
       <c r="A1589" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1589" s="1" t="s">
         <v>1</v>
@@ -17885,7 +17888,7 @@
     </row>
     <row r="1590">
       <c r="A1590" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1590" s="1" t="s">
         <v>1</v>
@@ -17896,7 +17899,7 @@
     </row>
     <row r="1591">
       <c r="A1591" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1591" s="1" t="s">
         <v>1</v>
@@ -17907,7 +17910,7 @@
     </row>
     <row r="1592">
       <c r="A1592" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1592" s="1" t="s">
         <v>1</v>
@@ -17918,7 +17921,7 @@
     </row>
     <row r="1593">
       <c r="A1593" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1593" s="1" t="s">
         <v>1</v>
@@ -17929,7 +17932,7 @@
     </row>
     <row r="1594">
       <c r="A1594" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1594" s="1" t="s">
         <v>1</v>
@@ -17940,7 +17943,7 @@
     </row>
     <row r="1595">
       <c r="A1595" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1595" s="1" t="s">
         <v>1</v>
@@ -17951,7 +17954,7 @@
     </row>
     <row r="1596">
       <c r="A1596" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1596" s="1" t="s">
         <v>1</v>
@@ -17962,7 +17965,7 @@
     </row>
     <row r="1597">
       <c r="A1597" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1597" s="1" t="s">
         <v>1</v>
@@ -17973,7 +17976,7 @@
     </row>
     <row r="1598">
       <c r="A1598" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1598" s="1" t="s">
         <v>1</v>
@@ -18210,7 +18213,7 @@
         <v>1</v>
       </c>
       <c r="C1619" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1620">
@@ -18281,7 +18284,7 @@
     </row>
     <row r="1626">
       <c r="A1626" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1626" s="1" t="s">
         <v>1</v>
@@ -18292,7 +18295,7 @@
     </row>
     <row r="1627">
       <c r="A1627" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1627" s="1" t="s">
         <v>1</v>
@@ -18303,7 +18306,7 @@
     </row>
     <row r="1628">
       <c r="A1628" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1628" s="1" t="s">
         <v>1</v>
@@ -18314,7 +18317,7 @@
     </row>
     <row r="1629">
       <c r="A1629" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1629" s="1" t="s">
         <v>1</v>
@@ -18325,7 +18328,7 @@
     </row>
     <row r="1630">
       <c r="A1630" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1630" s="1" t="s">
         <v>1</v>
@@ -18336,7 +18339,7 @@
     </row>
     <row r="1631">
       <c r="A1631" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1631" s="1" t="s">
         <v>1</v>
@@ -18347,7 +18350,7 @@
     </row>
     <row r="1632">
       <c r="A1632" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1632" s="1" t="s">
         <v>1</v>
@@ -18358,7 +18361,7 @@
     </row>
     <row r="1633">
       <c r="A1633" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1633" s="1" t="s">
         <v>1</v>
@@ -18369,7 +18372,7 @@
     </row>
     <row r="1634">
       <c r="A1634" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1634" s="1" t="s">
         <v>1</v>
@@ -18380,7 +18383,7 @@
     </row>
     <row r="1635">
       <c r="A1635" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1635" s="1" t="s">
         <v>1</v>
@@ -18391,7 +18394,7 @@
     </row>
     <row r="1636">
       <c r="A1636" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1636" s="1" t="s">
         <v>1</v>
@@ -18402,7 +18405,7 @@
     </row>
     <row r="1637">
       <c r="A1637" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1637" s="1" t="s">
         <v>1</v>
@@ -18413,7 +18416,7 @@
     </row>
     <row r="1638">
       <c r="A1638" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1638" s="1" t="s">
         <v>1</v>
@@ -18424,7 +18427,7 @@
     </row>
     <row r="1639">
       <c r="A1639" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1639" s="1" t="s">
         <v>1</v>
@@ -18435,7 +18438,7 @@
     </row>
     <row r="1640">
       <c r="A1640" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1640" s="1" t="s">
         <v>1</v>
@@ -18446,7 +18449,7 @@
     </row>
     <row r="1641">
       <c r="A1641" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1641" s="1" t="s">
         <v>1</v>
@@ -18457,7 +18460,7 @@
     </row>
     <row r="1642">
       <c r="A1642" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1642" s="1" t="s">
         <v>1</v>
@@ -18468,7 +18471,7 @@
     </row>
     <row r="1643">
       <c r="A1643" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1643" s="1" t="s">
         <v>1</v>
@@ -18479,7 +18482,7 @@
     </row>
     <row r="1644">
       <c r="A1644" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1644" s="1" t="s">
         <v>1</v>
@@ -18490,7 +18493,7 @@
     </row>
     <row r="1645">
       <c r="A1645" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1645" s="1" t="s">
         <v>1</v>
@@ -18501,7 +18504,7 @@
     </row>
     <row r="1646">
       <c r="A1646" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1646" s="1" t="s">
         <v>1</v>
@@ -18512,7 +18515,7 @@
     </row>
     <row r="1647">
       <c r="A1647" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1647" s="1" t="s">
         <v>1</v>
@@ -18523,7 +18526,7 @@
     </row>
     <row r="1648">
       <c r="A1648" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1648" s="1" t="s">
         <v>1</v>
@@ -18886,7 +18889,7 @@
     </row>
     <row r="1681">
       <c r="A1681" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1681" s="1" t="s">
         <v>1</v>
@@ -18897,7 +18900,7 @@
     </row>
     <row r="1682">
       <c r="A1682" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1682" s="1" t="s">
         <v>1</v>
@@ -18908,7 +18911,7 @@
     </row>
     <row r="1683">
       <c r="A1683" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1683" s="1" t="s">
         <v>1</v>
@@ -18919,7 +18922,7 @@
     </row>
     <row r="1684">
       <c r="A1684" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1684" s="1" t="s">
         <v>1</v>
@@ -18930,7 +18933,7 @@
     </row>
     <row r="1685">
       <c r="A1685" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1685" s="1" t="s">
         <v>1</v>
@@ -18941,7 +18944,7 @@
     </row>
     <row r="1686">
       <c r="A1686" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1686" s="1" t="s">
         <v>1</v>
@@ -18952,7 +18955,7 @@
     </row>
     <row r="1687">
       <c r="A1687" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1687" s="1" t="s">
         <v>1</v>
@@ -18963,7 +18966,7 @@
     </row>
     <row r="1688">
       <c r="A1688" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1688" s="1" t="s">
         <v>1</v>
@@ -18974,7 +18977,7 @@
     </row>
     <row r="1689">
       <c r="A1689" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1689" s="1" t="s">
         <v>1</v>
@@ -18985,7 +18988,7 @@
     </row>
     <row r="1690">
       <c r="A1690" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1690" s="1" t="s">
         <v>1</v>
@@ -18996,7 +18999,7 @@
     </row>
     <row r="1691">
       <c r="A1691" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1691" s="1" t="s">
         <v>1</v>
@@ -19007,18 +19010,18 @@
     </row>
     <row r="1692">
       <c r="A1692" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1692" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1692" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1693">
       <c r="A1693" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1693" s="1" t="s">
         <v>1</v>
@@ -19029,7 +19032,7 @@
     </row>
     <row r="1694">
       <c r="A1694" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1694" s="1" t="s">
         <v>1</v>
@@ -19040,7 +19043,7 @@
     </row>
     <row r="1695">
       <c r="A1695" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1695" s="1" t="s">
         <v>1</v>
@@ -19051,7 +19054,7 @@
     </row>
     <row r="1696">
       <c r="A1696" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1696" s="1" t="s">
         <v>1</v>
@@ -19062,7 +19065,7 @@
     </row>
     <row r="1697">
       <c r="A1697" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1697" s="1" t="s">
         <v>1</v>
@@ -19073,7 +19076,7 @@
     </row>
     <row r="1698">
       <c r="A1698" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1698" s="1" t="s">
         <v>1</v>
@@ -19200,7 +19203,7 @@
         <v>1</v>
       </c>
       <c r="C1709" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1710">
@@ -19480,7 +19483,7 @@
     </row>
     <row r="1735">
       <c r="A1735" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1735" s="1" t="s">
         <v>1</v>
@@ -19491,7 +19494,7 @@
     </row>
     <row r="1736">
       <c r="A1736" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1736" s="1" t="s">
         <v>1</v>
@@ -19502,7 +19505,7 @@
     </row>
     <row r="1737">
       <c r="A1737" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1737" s="1" t="s">
         <v>1</v>
@@ -19513,7 +19516,7 @@
     </row>
     <row r="1738">
       <c r="A1738" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1738" s="1" t="s">
         <v>1</v>
@@ -19524,7 +19527,7 @@
     </row>
     <row r="1739">
       <c r="A1739" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1739" s="1" t="s">
         <v>1</v>
@@ -19535,7 +19538,7 @@
     </row>
     <row r="1740">
       <c r="A1740" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1740" s="1" t="s">
         <v>1</v>
@@ -19546,7 +19549,7 @@
     </row>
     <row r="1741">
       <c r="A1741" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1741" s="1" t="s">
         <v>1</v>
@@ -19557,7 +19560,7 @@
     </row>
     <row r="1742">
       <c r="A1742" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1742" s="1" t="s">
         <v>1</v>
@@ -19568,7 +19571,7 @@
     </row>
     <row r="1743">
       <c r="A1743" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1743" s="1" t="s">
         <v>1</v>
@@ -19579,7 +19582,7 @@
     </row>
     <row r="1744">
       <c r="A1744" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1744" s="1" t="s">
         <v>1</v>
@@ -19590,7 +19593,7 @@
     </row>
     <row r="1745">
       <c r="A1745" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1745" s="1" t="s">
         <v>1</v>
@@ -19601,7 +19604,7 @@
     </row>
     <row r="1746">
       <c r="A1746" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1746" s="1" t="s">
         <v>1</v>
@@ -19612,7 +19615,7 @@
     </row>
     <row r="1747">
       <c r="A1747" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1747" s="1" t="s">
         <v>1</v>
@@ -19623,7 +19626,7 @@
     </row>
     <row r="1748">
       <c r="A1748" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1748" s="1" t="s">
         <v>1</v>
@@ -19975,7 +19978,7 @@
     </row>
     <row r="1780">
       <c r="A1780" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1780" s="1" t="s">
         <v>1</v>
@@ -19986,7 +19989,7 @@
     </row>
     <row r="1781">
       <c r="A1781" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1781" s="1" t="s">
         <v>1</v>
@@ -19997,18 +20000,18 @@
     </row>
     <row r="1782">
       <c r="A1782" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1782" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1782" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1783">
       <c r="A1783" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1783" s="1" t="s">
         <v>1</v>
@@ -20019,18 +20022,18 @@
     </row>
     <row r="1784">
       <c r="A1784" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1784" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1784" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1785">
       <c r="A1785" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1785" s="1" t="s">
         <v>1</v>
@@ -20041,18 +20044,18 @@
     </row>
     <row r="1786">
       <c r="A1786" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1786" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1786" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1787">
       <c r="A1787" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1787" s="1" t="s">
         <v>1</v>
@@ -20063,7 +20066,7 @@
     </row>
     <row r="1788">
       <c r="A1788" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1788" s="1" t="s">
         <v>1</v>
@@ -20074,7 +20077,7 @@
     </row>
     <row r="1789">
       <c r="A1789" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1789" s="1" t="s">
         <v>1</v>
@@ -20085,7 +20088,7 @@
     </row>
     <row r="1790">
       <c r="A1790" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1790" s="1" t="s">
         <v>1</v>
@@ -20096,18 +20099,18 @@
     </row>
     <row r="1791">
       <c r="A1791" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1791" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1791" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1792">
       <c r="A1792" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1792" s="1" t="s">
         <v>1</v>
@@ -20118,29 +20121,29 @@
     </row>
     <row r="1793">
       <c r="A1793" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1793" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1793" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1794">
       <c r="A1794" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1794" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1794" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1795">
       <c r="A1795" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1795" s="1" t="s">
         <v>1</v>
@@ -20151,18 +20154,18 @@
     </row>
     <row r="1796">
       <c r="A1796" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1796" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1796" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1797">
       <c r="A1797" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1797" s="1" t="s">
         <v>1</v>
@@ -20173,13 +20176,13 @@
     </row>
     <row r="1798">
       <c r="A1798" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1798" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1798" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1799">
@@ -20201,7 +20204,7 @@
         <v>1</v>
       </c>
       <c r="C1800" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1801">
@@ -20212,7 +20215,7 @@
         <v>1</v>
       </c>
       <c r="C1801" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1802">
@@ -20223,7 +20226,7 @@
         <v>1</v>
       </c>
       <c r="C1802" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1803">
@@ -20234,7 +20237,7 @@
         <v>1</v>
       </c>
       <c r="C1803" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1804">
@@ -20245,7 +20248,7 @@
         <v>1</v>
       </c>
       <c r="C1804" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1805">
@@ -20256,7 +20259,7 @@
         <v>1</v>
       </c>
       <c r="C1805" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1806">
@@ -20272,7 +20275,7 @@
     </row>
     <row r="1807">
       <c r="A1807" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1807" s="1" t="s">
         <v>1</v>
@@ -20283,7 +20286,7 @@
     </row>
     <row r="1808">
       <c r="A1808" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1808" s="1" t="s">
         <v>1</v>
@@ -20294,7 +20297,7 @@
     </row>
     <row r="1809">
       <c r="A1809" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1809" s="1" t="s">
         <v>1</v>
@@ -20305,7 +20308,7 @@
     </row>
     <row r="1810">
       <c r="A1810" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1810" s="1" t="s">
         <v>1</v>
@@ -20316,29 +20319,29 @@
     </row>
     <row r="1811">
       <c r="A1811" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1811" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1811" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1812">
       <c r="A1812" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1812" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1812" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1813">
       <c r="A1813" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1813" s="1" t="s">
         <v>1</v>
@@ -20349,7 +20352,7 @@
     </row>
     <row r="1814">
       <c r="A1814" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1814" s="1" t="s">
         <v>1</v>
@@ -20360,7 +20363,7 @@
     </row>
     <row r="1815">
       <c r="A1815" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1815" s="1" t="s">
         <v>1</v>
@@ -20371,7 +20374,7 @@
     </row>
     <row r="1816">
       <c r="A1816" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1816" s="1" t="s">
         <v>1</v>
@@ -20382,18 +20385,18 @@
     </row>
     <row r="1817">
       <c r="A1817" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1817" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1817" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1818">
       <c r="A1818" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1818" s="1" t="s">
         <v>1</v>
@@ -20404,7 +20407,7 @@
     </row>
     <row r="1819">
       <c r="A1819" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1819" s="1" t="s">
         <v>1</v>
@@ -20415,18 +20418,18 @@
     </row>
     <row r="1820">
       <c r="A1820" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1820" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1820" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1821">
       <c r="A1821" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1821" s="1" t="s">
         <v>1</v>
@@ -20437,18 +20440,18 @@
     </row>
     <row r="1822">
       <c r="A1822" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1822" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1822" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1823">
       <c r="A1823" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1823" s="1" t="s">
         <v>1</v>
@@ -20459,7 +20462,7 @@
     </row>
     <row r="1824">
       <c r="A1824" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1824" s="1" t="s">
         <v>1</v>
@@ -20470,40 +20473,40 @@
     </row>
     <row r="1825">
       <c r="A1825" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1825" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1825" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1826">
       <c r="A1826" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1826" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1826" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1827">
       <c r="A1827" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1827" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1827" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1828">
       <c r="A1828" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1828" s="1" t="s">
         <v>1</v>
@@ -20514,7 +20517,7 @@
     </row>
     <row r="1829">
       <c r="A1829" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1829" s="1" t="s">
         <v>1</v>
@@ -20525,7 +20528,7 @@
     </row>
     <row r="1830">
       <c r="A1830" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1830" s="1" t="s">
         <v>1</v>
@@ -20536,18 +20539,18 @@
     </row>
     <row r="1831">
       <c r="A1831" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1831" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1831" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1832">
       <c r="A1832" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1832" s="1" t="s">
         <v>1</v>
@@ -20558,7 +20561,7 @@
     </row>
     <row r="1833">
       <c r="A1833" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1833" s="1" t="s">
         <v>1</v>
@@ -20569,7 +20572,7 @@
     </row>
     <row r="1834">
       <c r="A1834" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1834" s="1" t="s">
         <v>1</v>
@@ -20580,18 +20583,18 @@
     </row>
     <row r="1835">
       <c r="A1835" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1835" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1835" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1836">
       <c r="A1836" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1836" s="1" t="s">
         <v>1</v>
@@ -20602,7 +20605,7 @@
     </row>
     <row r="1837">
       <c r="A1837" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1837" s="1" t="s">
         <v>1</v>
@@ -20613,7 +20616,7 @@
     </row>
     <row r="1838">
       <c r="A1838" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1838" s="1" t="s">
         <v>1</v>
@@ -20624,18 +20627,18 @@
     </row>
     <row r="1839">
       <c r="A1839" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1839" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1839" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1840">
       <c r="A1840" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1840" s="1" t="s">
         <v>1</v>
@@ -20646,7 +20649,7 @@
     </row>
     <row r="1841">
       <c r="A1841" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1841" s="1" t="s">
         <v>1</v>
@@ -20657,7 +20660,7 @@
     </row>
     <row r="1842">
       <c r="A1842" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1842" s="1" t="s">
         <v>1</v>
@@ -20668,18 +20671,18 @@
     </row>
     <row r="1843">
       <c r="A1843" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1843" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1843" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1844">
       <c r="A1844" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1844" s="1" t="s">
         <v>1</v>
@@ -20690,7 +20693,7 @@
     </row>
     <row r="1845">
       <c r="A1845" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1845" s="1" t="s">
         <v>1</v>
@@ -20701,7 +20704,7 @@
     </row>
     <row r="1846">
       <c r="A1846" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1846" s="1" t="s">
         <v>1</v>
@@ -20712,7 +20715,7 @@
     </row>
     <row r="1847">
       <c r="A1847" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1847" s="1" t="s">
         <v>1</v>
@@ -20723,7 +20726,7 @@
     </row>
     <row r="1848">
       <c r="A1848" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1848" s="1" t="s">
         <v>1</v>
@@ -20751,7 +20754,7 @@
         <v>1</v>
       </c>
       <c r="C1850" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1851">
@@ -20784,7 +20787,7 @@
         <v>1</v>
       </c>
       <c r="C1853" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1854">
@@ -20839,7 +20842,7 @@
         <v>1</v>
       </c>
       <c r="C1858" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1859">
@@ -20850,7 +20853,7 @@
         <v>1</v>
       </c>
       <c r="C1859" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1860">
@@ -20883,7 +20886,7 @@
         <v>1</v>
       </c>
       <c r="C1862" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1863">
@@ -20960,7 +20963,7 @@
         <v>1</v>
       </c>
       <c r="C1869" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1870">
@@ -20993,7 +20996,7 @@
         <v>1</v>
       </c>
       <c r="C1872" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1873">
@@ -21009,7 +21012,7 @@
     </row>
     <row r="1874">
       <c r="A1874" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1874" s="1" t="s">
         <v>1</v>
@@ -21020,7 +21023,7 @@
     </row>
     <row r="1875">
       <c r="A1875" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1875" s="1" t="s">
         <v>1</v>
@@ -21031,7 +21034,7 @@
     </row>
     <row r="1876">
       <c r="A1876" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1876" s="1" t="s">
         <v>1</v>
@@ -21042,7 +21045,7 @@
     </row>
     <row r="1877">
       <c r="A1877" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1877" s="1" t="s">
         <v>1</v>
@@ -21053,7 +21056,7 @@
     </row>
     <row r="1878">
       <c r="A1878" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1878" s="1" t="s">
         <v>1</v>
@@ -21064,7 +21067,7 @@
     </row>
     <row r="1879">
       <c r="A1879" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1879" s="1" t="s">
         <v>1</v>
@@ -21075,7 +21078,7 @@
     </row>
     <row r="1880">
       <c r="A1880" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1880" s="1" t="s">
         <v>1</v>
@@ -21086,18 +21089,18 @@
     </row>
     <row r="1881">
       <c r="A1881" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1881" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1881" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1882">
       <c r="A1882" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1882" s="1" t="s">
         <v>1</v>
@@ -21108,7 +21111,7 @@
     </row>
     <row r="1883">
       <c r="A1883" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1883" s="1" t="s">
         <v>1</v>
@@ -21119,18 +21122,18 @@
     </row>
     <row r="1884">
       <c r="A1884" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1884" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1884" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1885">
       <c r="A1885" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1885" s="1" t="s">
         <v>1</v>
@@ -21141,7 +21144,7 @@
     </row>
     <row r="1886">
       <c r="A1886" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1886" s="1" t="s">
         <v>1</v>
@@ -21152,18 +21155,18 @@
     </row>
     <row r="1887">
       <c r="A1887" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1887" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1887" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1888">
       <c r="A1888" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1888" s="1" t="s">
         <v>1</v>
@@ -21174,7 +21177,7 @@
     </row>
     <row r="1889">
       <c r="A1889" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1889" s="1" t="s">
         <v>1</v>
@@ -21185,7 +21188,7 @@
     </row>
     <row r="1890">
       <c r="A1890" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1890" s="1" t="s">
         <v>1</v>
@@ -21196,18 +21199,18 @@
     </row>
     <row r="1891">
       <c r="A1891" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1891" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1891" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1892">
       <c r="A1892" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1892" s="1" t="s">
         <v>1</v>
@@ -21218,29 +21221,29 @@
     </row>
     <row r="1893">
       <c r="A1893" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1893" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1893" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1894">
       <c r="A1894" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1894" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1894" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1895">
       <c r="A1895" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1895" s="1" t="s">
         <v>1</v>
@@ -21251,7 +21254,7 @@
     </row>
     <row r="1896">
       <c r="A1896" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1896" s="1" t="s">
         <v>1</v>
@@ -21262,18 +21265,18 @@
     </row>
     <row r="1897">
       <c r="A1897" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1897" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1897" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1898">
       <c r="A1898" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1898" s="1" t="s">
         <v>1</v>
@@ -21312,7 +21315,7 @@
         <v>1</v>
       </c>
       <c r="C1901" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1902">
@@ -21356,7 +21359,7 @@
         <v>1</v>
       </c>
       <c r="C1905" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1906">
@@ -21378,7 +21381,7 @@
         <v>1</v>
       </c>
       <c r="C1907" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1908">
@@ -21400,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="C1909" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1910">
@@ -21493,7 +21496,7 @@
     </row>
     <row r="1918">
       <c r="A1918" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1918" s="2" t="s">
         <v>1</v>
@@ -21504,7 +21507,7 @@
     </row>
     <row r="1919">
       <c r="A1919" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1919" s="2" t="s">
         <v>1</v>
@@ -21515,7 +21518,7 @@
     </row>
     <row r="1920">
       <c r="A1920" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1920" s="2" t="s">
         <v>1</v>
@@ -21526,7 +21529,7 @@
     </row>
     <row r="1921">
       <c r="A1921" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1921" s="2" t="s">
         <v>1</v>
@@ -21537,7 +21540,7 @@
     </row>
     <row r="1922">
       <c r="A1922" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1922" s="2" t="s">
         <v>1</v>
@@ -21548,18 +21551,18 @@
     </row>
     <row r="1923">
       <c r="A1923" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1923" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1923" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1924">
       <c r="A1924" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1924" s="2" t="s">
         <v>1</v>
@@ -21570,7 +21573,7 @@
     </row>
     <row r="1925">
       <c r="A1925" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1925" s="2" t="s">
         <v>1</v>
@@ -21581,7 +21584,7 @@
     </row>
     <row r="1926">
       <c r="A1926" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1926" s="2" t="s">
         <v>1</v>
@@ -21592,7 +21595,7 @@
     </row>
     <row r="1927">
       <c r="A1927" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1927" s="2" t="s">
         <v>1</v>
@@ -21603,7 +21606,7 @@
     </row>
     <row r="1928">
       <c r="A1928" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1928" s="2" t="s">
         <v>1</v>
@@ -21614,7 +21617,7 @@
     </row>
     <row r="1929">
       <c r="A1929" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1929" s="2" t="s">
         <v>1</v>
@@ -21625,7 +21628,7 @@
     </row>
     <row r="1930">
       <c r="A1930" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1930" s="2" t="s">
         <v>1</v>
@@ -21636,29 +21639,29 @@
     </row>
     <row r="1931">
       <c r="A1931" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1931" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1931" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1932">
       <c r="A1932" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1932" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1932" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1933">
       <c r="A1933" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1933" s="2" t="s">
         <v>1</v>
@@ -21669,7 +21672,7 @@
     </row>
     <row r="1934">
       <c r="A1934" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1934" s="2" t="s">
         <v>1</v>
@@ -21680,7 +21683,7 @@
     </row>
     <row r="1935">
       <c r="A1935" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1935" s="2" t="s">
         <v>1</v>
@@ -21691,7 +21694,7 @@
     </row>
     <row r="1936">
       <c r="A1936" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1936" s="2" t="s">
         <v>1</v>
@@ -21702,18 +21705,18 @@
     </row>
     <row r="1937">
       <c r="A1937" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1937" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1937" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1938">
       <c r="A1938" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1938" s="2" t="s">
         <v>1</v>
@@ -21724,29 +21727,29 @@
     </row>
     <row r="1939">
       <c r="A1939" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1939" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1939" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1940">
       <c r="A1940" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1940" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1940" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1941">
       <c r="A1941" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1941" s="2" t="s">
         <v>1</v>
@@ -21757,7 +21760,7 @@
     </row>
     <row r="1942">
       <c r="A1942" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1942" s="2" t="s">
         <v>1</v>
@@ -21768,29 +21771,29 @@
     </row>
     <row r="1943">
       <c r="A1943" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1943" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1943" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1944">
       <c r="A1944" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1944" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1944" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1945">
       <c r="A1945" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1945" s="2" t="s">
         <v>1</v>
@@ -21801,7 +21804,7 @@
     </row>
     <row r="1946">
       <c r="A1946" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1946" s="2" t="s">
         <v>1</v>
@@ -21812,18 +21815,18 @@
     </row>
     <row r="1947">
       <c r="A1947" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1947" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1947" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1948">
       <c r="A1948" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1948" s="2" t="s">
         <v>1</v>
@@ -21840,7 +21843,7 @@
         <v>1</v>
       </c>
       <c r="C1949" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1950">
@@ -22016,7 +22019,7 @@
         <v>1</v>
       </c>
       <c r="C1965" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1966">
@@ -22027,7 +22030,7 @@
         <v>1</v>
       </c>
       <c r="C1966" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1967">
@@ -22038,7 +22041,7 @@
         <v>1</v>
       </c>
       <c r="C1967" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1968">
@@ -22175,29 +22178,29 @@
     </row>
     <row r="1980">
       <c r="A1980" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1980" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1980" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1981">
       <c r="A1981" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1981" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1981" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1982">
       <c r="A1982" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1982" s="2" t="s">
         <v>1</v>
@@ -22208,7 +22211,7 @@
     </row>
     <row r="1983">
       <c r="A1983" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1983" s="2" t="s">
         <v>1</v>
@@ -22219,7 +22222,7 @@
     </row>
     <row r="1984">
       <c r="A1984" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1984" s="2" t="s">
         <v>1</v>
@@ -22230,18 +22233,18 @@
     </row>
     <row r="1985">
       <c r="A1985" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1985" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1985" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1986">
       <c r="A1986" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1986" s="2" t="s">
         <v>1</v>
@@ -22252,7 +22255,7 @@
     </row>
     <row r="1987">
       <c r="A1987" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1987" s="2" t="s">
         <v>1</v>
@@ -22263,18 +22266,18 @@
     </row>
     <row r="1988">
       <c r="A1988" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1988" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1988" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1989">
       <c r="A1989" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1989" s="2" t="s">
         <v>1</v>
@@ -22285,7 +22288,7 @@
     </row>
     <row r="1990">
       <c r="A1990" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1990" s="2" t="s">
         <v>1</v>
@@ -22296,18 +22299,18 @@
     </row>
     <row r="1991">
       <c r="A1991" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1991" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1991" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1992">
       <c r="A1992" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1992" s="2" t="s">
         <v>1</v>
@@ -22318,7 +22321,7 @@
     </row>
     <row r="1993">
       <c r="A1993" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1993" s="2" t="s">
         <v>1</v>
@@ -22329,7 +22332,7 @@
     </row>
     <row r="1994">
       <c r="A1994" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1994" s="2" t="s">
         <v>1</v>
@@ -22340,7 +22343,7 @@
     </row>
     <row r="1995">
       <c r="A1995" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1995" s="2" t="s">
         <v>1</v>
@@ -22351,7 +22354,7 @@
     </row>
     <row r="1996">
       <c r="A1996" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1996" s="2" t="s">
         <v>1</v>
@@ -22362,7 +22365,7 @@
     </row>
     <row r="1997">
       <c r="A1997" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1997" s="2" t="s">
         <v>1</v>
@@ -22373,18 +22376,18 @@
     </row>
     <row r="1998">
       <c r="A1998" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1998" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1998" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1999">
       <c r="A1999" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1999" s="2" t="s">
         <v>1</v>
@@ -22395,7 +22398,7 @@
     </row>
     <row r="2000">
       <c r="A2000" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2000" s="2" t="s">
         <v>1</v>
